--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cristian.lopera/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DDEA02-EC31-254A-89B3-5FCB200CDE55}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8558F0D-5687-D249-A736-FCE733580A88}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={1A7077E6-D0EB-0747-9851-3832696FC62A}</author>
+    <author>tc={9FA73004-6F9F-F44D-AF40-0BB20CE2F916}</author>
   </authors>
   <commentList>
     <comment ref="C5" authorId="0" shapeId="0" xr:uid="{1A7077E6-D0EB-0747-9851-3832696FC62A}">
@@ -42,6 +43,15 @@
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     columnDBSearch es el nombre de  la columna en la tabla usuario por la que se va a buscar</t>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="1" shapeId="0" xr:uid="{9FA73004-6F9F-F44D-AF40-0BB20CE2F916}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Los valores que pueden llegar en  rol son:
+ADMIN,SECRET,EMPLOYEE</t>
       </text>
     </comment>
   </commentList>
@@ -193,18 +203,6 @@
     <t>Login</t>
   </si>
   <si>
-    <t>{
-    "status": "error",
-    "message": "Contraseña incorrecta."
-}</t>
-  </si>
-  <si>
-    <t>{
-    "status": "success",
-    "message": "sesion iniciada."
-}</t>
-  </si>
-  <si>
     <t>Finalizar sesion</t>
   </si>
   <si>
@@ -220,6 +218,20 @@
     <t>{
     "status": "success",
     "message": "sesion finalizada."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Contraseña incorrecta.",
+    "rol" : "tipo_rol"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "Contraseña incorrecta.",
+    "rol" : null
 }</t>
   </si>
 </sst>
@@ -527,17 +539,47 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -559,36 +601,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -611,10 +623,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC0E40D0-175E-A043-B700-52DCB96B4C6A}" name="Tabla1" displayName="Tabla1" ref="A1:E16" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC0E40D0-175E-A043-B700-52DCB96B4C6A}" name="Tabla1" displayName="Tabla1" ref="A1:E16" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A1:E16" xr:uid="{F36B9FEE-7844-BB45-951C-914229BB8FBD}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6F49297A-0900-E14B-83B2-2AE43C037C74}" name="SERVICIO" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{6F49297A-0900-E14B-83B2-2AE43C037C74}" name="SERVICIO" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{57EE9C9E-ADBE-BC4F-AB61-34182D5C23CF}" name="URL" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{B01C19D5-1B37-9548-B550-43BC8336EB9E}" name="REQUEST" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{256E2A0D-5A90-444B-AF02-39076F07DA18}" name="RESPONSE SUCCESS" dataDxfId="1"/>
@@ -924,6 +936,10 @@
   <threadedComment ref="C5" dT="2019-09-05T20:07:56.70" personId="{09DFB343-EC5A-084B-9E0D-3C8610716132}" id="{1A7077E6-D0EB-0747-9851-3832696FC62A}">
     <text>columnDBSearch es el nombre de  la columna en la tabla usuario por la que se va a buscar</text>
   </threadedComment>
+  <threadedComment ref="D6" dT="2019-09-07T20:08:08.95" personId="{09DFB343-EC5A-084B-9E0D-3C8610716132}" id="{9FA73004-6F9F-F44D-AF40-0BB20CE2F916}">
+    <text>Los valores que pueden llegar en  rol son:
+ADMIN,SECRET,EMPLOYEE</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -931,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7EBD3-0618-2440-AF04-A7ADAD9C114C}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1029,7 +1045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="68">
+    <row r="6" spans="1:5" ht="85">
       <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1040,27 +1056,27 @@
         <v>23</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="68">
       <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="D7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5">

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8558F0D-5687-D249-A736-FCE733580A88}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826DD671-4482-CA45-8DF9-52CEE48A410B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>SERVICIO</t>
   </si>
@@ -191,12 +191,6 @@
 }</t>
   </si>
   <si>
-    <t>{
-    "nombre_login": "dompi",
-    "contrasena": "wenass"
-}</t>
-  </si>
-  <si>
     <t>logIn</t>
   </si>
   <si>
@@ -232,6 +226,125 @@
     "status": "error",
     "message": "Contraseña incorrecta.",
     "rol" : null
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevo tipo de habitación </t>
+  </si>
+  <si>
+    <t>{
+    "nombre_tipo": "Premium3",
+    "descripcion": "des",
+    "valor_hora": "23232",
+    "valor_persona_adicional": "1"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "nombre_login": "dompi",
+    "contrasena": "wenas"
+}</t>
+  </si>
+  <si>
+    <t>createType</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "Este tipo de habitación ya esta registrado en el sistema."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Tipo de habitación registrado exitosamente."
+}</t>
+  </si>
+  <si>
+    <t>Modificar Tipo de habitación</t>
+  </si>
+  <si>
+    <t>{
+    "id": "1",
+    "nombre_tipo": "Premium",
+    "descripcion": "Cama doble para tiki tiki",
+    "valor_hora": "20000",
+    "valor_persona_adicional": "12000",
+    "estado": "1"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Tipo de habitación modificada exitosamente."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "Causa"
+}</t>
+  </si>
+  <si>
+    <t>UpdateTypeRoom</t>
+  </si>
+  <si>
+    <t>Eliminar Tipo de habitación</t>
+  </si>
+  <si>
+    <t>deleteTypeRoom</t>
+  </si>
+  <si>
+    <t>{
+    "id": "1"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Tipo de usuario eliminado."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "Este tipo de habitación no esta  registrado en el sistema."
+}</t>
+  </si>
+  <si>
+    <t>Buscar Tipo de habitación</t>
+  </si>
+  <si>
+    <t>readByTypeRoom</t>
+  </si>
+  <si>
+    <t>{
+    "columnDBSearch": "th_nombre_tipo",
+    "value": "Premium"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Consultas realizada.",
+    "data": [
+        {
+            "id_habitacion": "1",
+            "th_nombre_tipo": "Premium",
+            "th_descripcion": "Cama doble para tiki tiki",
+            "th_valor_hora": "20000",
+            "th_valor_persona_adicional": "12000",
+            "th_estado": "1",
+            "th_fecha_creacion": "2019-09-07"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "no hay información asociada a esta consulta verifica los parametros.",
+    "data": null
 }</t>
   </si>
 </sst>
@@ -239,7 +352,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -262,12 +375,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -459,10 +566,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -947,13 +1054,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7EBD3-0618-2440-AF04-A7ADAD9C114C}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="2" width="40.33203125" customWidth="1"/>
     <col min="3" max="3" width="36.6640625" customWidth="1"/>
     <col min="4" max="4" width="47.83203125" customWidth="1"/>
@@ -1047,65 +1154,105 @@
     </row>
     <row r="6" spans="1:5" ht="85">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="68">
       <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="13"/>
+    </row>
+    <row r="8" spans="1:5" ht="102">
+      <c r="A8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="153">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="85">
+      <c r="A10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="255">
+      <c r="A11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826DD671-4482-CA45-8DF9-52CEE48A410B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791D6D23-7DE9-3C4D-B1CF-73EC5C229BFD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>SERVICIO</t>
   </si>
@@ -345,6 +345,19 @@
     "status": "error",
     "message": "no hay información asociada a esta consulta verifica los parametros.",
     "data": null
+}</t>
+  </si>
+  <si>
+    <t>Obtener el numero de una nueva habitación</t>
+  </si>
+  <si>
+    <t>newNumberOfRoom</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Consultas realizada.",
+    "numero_nueva_habitacion": 2
 }</t>
   </si>
 </sst>
@@ -522,7 +535,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -571,6 +584,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1054,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7EBD3-0618-2440-AF04-A7ADAD9C114C}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1254,12 +1270,22 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="13"/>
+    <row r="12" spans="1:5" ht="85">
+      <c r="A12" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791D6D23-7DE9-3C4D-B1CF-73EC5C229BFD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A8140E-796F-6344-8376-ABA0E24A58DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>SERVICIO</t>
   </si>
@@ -359,6 +359,32 @@
     "message": "Consultas realizada.",
     "numero_nueva_habitacion": 2
 }</t>
+  </si>
+  <si>
+    <t>Crear Habitación</t>
+  </si>
+  <si>
+    <t>{
+    "tipo_habitacion": "1",
+    "detalles": ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "numero_habitacion": 7,
+    "message": "Habitación registrada exitosamente."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "numero_habitacion": null,
+    "message": "Ingresa un tipo de habitación Válido."
+}</t>
+  </si>
+  <si>
+    <t>createRoom</t>
   </si>
 </sst>
 </file>
@@ -1070,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7EBD3-0618-2440-AF04-A7ADAD9C114C}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:B48"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1287,12 +1313,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="13"/>
+    <row r="13" spans="1:5" ht="102">
+      <c r="A13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4"/>

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A8140E-796F-6344-8376-ABA0E24A58DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CAE164-B7A1-BD46-AF73-15747B3B5F03}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>SERVICIO</t>
   </si>
@@ -385,6 +385,38 @@
   </si>
   <si>
     <t>createRoom</t>
+  </si>
+  <si>
+    <t>Buscar habitacion</t>
+  </si>
+  <si>
+    <t>readByRoom</t>
+  </si>
+  <si>
+    <t>{
+    "columnDBSearch": "1",
+    "value": "1"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Consultas realizada.",
+    "data": [
+        {
+            "hab_numero": "2",
+            "id_tipo_habitacion": "1",
+            "hab_detalle": "",
+            "hab_fecha_creacion": "2019-09-08",
+            "hab_estado": "1",
+            "th_nombre_tipo": "Premium",
+            "th_descripcion": "Cama doble para tiki tiki",
+            "th_valor_hora": "20000",
+            "th_valor_persona_adicional": "12000",
+            "th_estado": "1",
+            "th_fecha_creacion": "2019-09-07"
+        }      ]
+}</t>
   </si>
 </sst>
 </file>
@@ -1096,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7EBD3-0618-2440-AF04-A7ADAD9C114C}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1330,12 +1362,22 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="13"/>
+    <row r="14" spans="1:5" ht="306">
+      <c r="A14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4"/>

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CAE164-B7A1-BD46-AF73-15747B3B5F03}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D33DB1-F5A9-094E-B88C-45250B39409D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>SERVICIO</t>
   </si>
@@ -416,6 +416,166 @@
             "th_estado": "1",
             "th_fecha_creacion": "2019-09-07"
         }      ]
+}</t>
+  </si>
+  <si>
+    <t>Modificar Habitación</t>
+  </si>
+  <si>
+    <t>UpdateRoom</t>
+  </si>
+  <si>
+    <t>{
+    "id": "9",
+    "tipo_habitacion": "1",
+    "hab_detalle": "sadasasd",
+    "estado": "1"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Habitación modificada exitosamente."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "Por ingresa un estado válido."
+}</t>
+  </si>
+  <si>
+    <t>Eliminar Habitación</t>
+  </si>
+  <si>
+    <t>{
+    "id": "9"
+}</t>
+  </si>
+  <si>
+    <t>deleteRoom</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Habitacióm eliminada."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "Esta habitación no esta  registrado en el sistema."
+}</t>
+  </si>
+  <si>
+    <t>Crear Proveedor</t>
+  </si>
+  <si>
+    <t>createProvider</t>
+  </si>
+  <si>
+    <t>{
+    "nombre": "Condoncito feliz",
+    "nit": "78778782-1",
+    "razon_social": "Dale Dale!",
+    "telefono": "32338889",
+    "direccion": "calle 95",
+    "correo": "sinhijos@hotmail.com",
+    "numero_cuenta": "8000222222",
+    "tipo_cuenta": "Ahorros",
+    "banco": "BBVA",
+    "pr_fecha_creacion": "2019-09-11",
+    "pr_ultimo_aprovisionamiento": "2019-09-11"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Proveedor registrado exitosamente."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "Esta proveedor ya se encuentra registrado en el sistema."
+}</t>
+  </si>
+  <si>
+    <t>Modificar proveedor</t>
+  </si>
+  <si>
+    <t>UpdateProvider</t>
+  </si>
+  <si>
+    <t>{
+    "id": "2",
+    "nombre": "Condoncito feliz",
+    "nit": "78778782-1",
+    "razon_social": "Dale Dale!!!",
+    "telefono": "32338889",
+    "direccion": "calle 95",
+    "correo": "sinhijos@hotmail.com",
+    "numero_cuenta": "8000222222",
+    "tipo_cuenta": "Ahorros",
+    "banco": "BBVA"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "Este proveedor no esta registrado en el sistema."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Proveedor Modificado exitosamente."
+}</t>
+  </si>
+  <si>
+    <t>Eliminar Proveedor</t>
+  </si>
+  <si>
+    <t>deleteProvider</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "Este proveerdor no esta  registrado en el sistema."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Proveedor eliminado."
+}</t>
+  </si>
+  <si>
+    <t>buscar proveedor</t>
+  </si>
+  <si>
+    <t>readByProvider</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Consultas realizada.",
+    "data": [
+        {
+            "id_proveedor": "3",
+            "pr_nit": "78778782-1",
+            "pr_nombre": "Condoncito feliz",
+            "pr_razon_social": "Dale Dale!",
+            "pr_telefono": "32338889",
+            "pr_direccion": "calle 95",
+            "pr_email": "sinhijos@hotmail.com",
+            "pr_numero_cuenta": "8000222222",
+            "pr_tipo_cuenta": "Ahorros",
+            "pr_banco": "BBVA",
+            "pr_ultimo_aprovisionamiento": "2019-09-12",
+            "pr_fecha_registro": "2019-09-12"
+        }
+    ]
 }</t>
   </si>
 </sst>
@@ -593,7 +753,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -645,6 +805,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -804,8 +973,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC0E40D0-175E-A043-B700-52DCB96B4C6A}" name="Tabla1" displayName="Tabla1" ref="A1:E16" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:E16" xr:uid="{F36B9FEE-7844-BB45-951C-914229BB8FBD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC0E40D0-175E-A043-B700-52DCB96B4C6A}" name="Tabla1" displayName="Tabla1" ref="A1:E24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E24" xr:uid="{F36B9FEE-7844-BB45-951C-914229BB8FBD}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6F49297A-0900-E14B-83B2-2AE43C037C74}" name="SERVICIO" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{57EE9C9E-ADBE-BC4F-AB61-34182D5C23CF}" name="URL" dataDxfId="3"/>
@@ -1126,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7EBD3-0618-2440-AF04-A7ADAD9C114C}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1379,19 +1548,135 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="14"/>
+    <row r="15" spans="1:5" ht="102">
+      <c r="A15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="85">
+      <c r="A16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="238">
+      <c r="A17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="204">
+      <c r="A18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="85">
+      <c r="A19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="340">
+      <c r="A20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D33DB1-F5A9-094E-B88C-45250B39409D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EDAE47-F985-3C4A-BA92-B20A9F0E5961}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
   <si>
     <t>SERVICIO</t>
   </si>
@@ -475,21 +475,6 @@
   </si>
   <si>
     <t>{
-    "nombre": "Condoncito feliz",
-    "nit": "78778782-1",
-    "razon_social": "Dale Dale!",
-    "telefono": "32338889",
-    "direccion": "calle 95",
-    "correo": "sinhijos@hotmail.com",
-    "numero_cuenta": "8000222222",
-    "tipo_cuenta": "Ahorros",
-    "banco": "BBVA",
-    "pr_fecha_creacion": "2019-09-11",
-    "pr_ultimo_aprovisionamiento": "2019-09-11"
-}</t>
-  </si>
-  <si>
-    <t>{
     "status": "success",
     "message": "Proveedor registrado exitosamente."
 }</t>
@@ -505,20 +490,6 @@
   </si>
   <si>
     <t>UpdateProvider</t>
-  </si>
-  <si>
-    <t>{
-    "id": "2",
-    "nombre": "Condoncito feliz",
-    "nit": "78778782-1",
-    "razon_social": "Dale Dale!!!",
-    "telefono": "32338889",
-    "direccion": "calle 95",
-    "correo": "sinhijos@hotmail.com",
-    "numero_cuenta": "8000222222",
-    "tipo_cuenta": "Ahorros",
-    "banco": "BBVA"
-}</t>
   </si>
   <si>
     <t>{
@@ -576,6 +547,63 @@
             "pr_fecha_registro": "2019-09-12"
         }
     ]
+}</t>
+  </si>
+  <si>
+    <t>Crear Categoria</t>
+  </si>
+  <si>
+    <t>createCategory</t>
+  </si>
+  <si>
+    <t>{
+    "nombre": "Lubricantes",
+    "descripcion": "pa que entre derecho y rico",
+    "fecha_creacion": "2019-09-12"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "Esta categoria ya se encuentra registrado en el sistema."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Categoria registrado exitosamente."
+}</t>
+  </si>
+  <si>
+    <t>Modificar Categoria</t>
+  </si>
+  <si>
+    <t>{
+    "id": "2",
+    "nombre": "Condoncito feliz",
+    "nit": "78778782-1",
+    "razon_social": "Dale Dale!!!",
+    "telefono": "32338889",
+    "direccion": "calle 95",
+    "correo": "sinhijos@hotmail.com",
+    "numero_cuenta": "8000222222",
+    "tipo_cuenta": "Ahorros",
+    "banco": "BBVA",
+    "nombre_contacto" : "Javier"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "nombre": "Condoncito feliz",
+    "nit": "78778782-1",
+    "razon_social": "Dale Dale!!!",
+    "telefono": "32338889",
+    "direccion": "calle 95",
+    "correo": "sinhijos@hotmail.com",
+    "numero_cuenta": "8000222222",
+    "tipo_cuenta": "Ahorros",
+    "banco": "BBVA",
+    "nombre_contacto" : "Javier"
 }</t>
   </si>
 </sst>
@@ -1297,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7EBD3-0618-2440-AF04-A7ADAD9C114C}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1582,7 +1610,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="238">
+    <row r="17" spans="1:5" ht="204">
       <c r="A17" s="4" t="s">
         <v>75</v>
       </c>
@@ -1590,75 +1618,87 @@
         <v>76</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="12" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="221">
+      <c r="A18" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="204">
-      <c r="A18" s="4" t="s">
+      <c r="B18" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="C18" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="85">
       <c r="A19" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="340">
       <c r="A20" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="13"/>
+    <row r="21" spans="1:5" ht="102">
+      <c r="A21" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
+      <c r="A22" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="B22" s="6"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EDAE47-F985-3C4A-BA92-B20A9F0E5961}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5D4EE7-0FBA-B245-A3F1-7E24D6E98CF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="109">
   <si>
     <t>SERVICIO</t>
   </si>
@@ -604,6 +604,65 @@
     "tipo_cuenta": "Ahorros",
     "banco": "BBVA",
     "nombre_contacto" : "Javier"
+}</t>
+  </si>
+  <si>
+    <t>UptadeCategory</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "Esta Categoria no esta registrada en el sistema."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Categoria Modificada exitosamente."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "id": "3",
+    "nombre": "Lubricantes",
+    "descripcion": "pa que entre derecho y rico!"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "id": "3"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "Esta categoria no esta  registrada en el sistema."
+}</t>
+  </si>
+  <si>
+    <t>deleteCategory</t>
+  </si>
+  <si>
+    <t>Eliminar categoria</t>
+  </si>
+  <si>
+    <t>Buscar Categoria</t>
+  </si>
+  <si>
+    <t>readByCategory</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Consultas realizada.",
+    "data": [
+        {
+            "id_categoria": "4",
+            "cat_nombre": "Lubricantes",
+            "cat_descripcion": "pa que entre derecho y rico",
+            "cat_fecha_creacion": "2019-09-12"
+        }
+    ]
 }</t>
   </si>
 </sst>
@@ -781,7 +840,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -798,16 +857,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1001,8 +1054,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC0E40D0-175E-A043-B700-52DCB96B4C6A}" name="Tabla1" displayName="Tabla1" ref="A1:E24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:E24" xr:uid="{F36B9FEE-7844-BB45-951C-914229BB8FBD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC0E40D0-175E-A043-B700-52DCB96B4C6A}" name="Tabla1" displayName="Tabla1" ref="A1:E56" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E56" xr:uid="{F36B9FEE-7844-BB45-951C-914229BB8FBD}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6F49297A-0900-E14B-83B2-2AE43C037C74}" name="SERVICIO" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{57EE9C9E-ADBE-BC4F-AB61-34182D5C23CF}" name="URL" dataDxfId="3"/>
@@ -1323,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7EBD3-0618-2440-AF04-A7ADAD9C114C}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1362,13 +1415,13 @@
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1376,16 +1429,16 @@
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1393,16 +1446,16 @@
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1410,16 +1463,16 @@
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1427,16 +1480,16 @@
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1444,16 +1497,16 @@
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1461,16 +1514,16 @@
       <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1478,16 +1531,16 @@
       <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1495,16 +1548,16 @@
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1512,33 +1565,33 @@
       <c r="A11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="85">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="11" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1546,16 +1599,16 @@
       <c r="A13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1563,16 +1616,16 @@
       <c r="A14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1580,16 +1633,16 @@
       <c r="A15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1597,16 +1650,16 @@
       <c r="A16" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="20" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1614,16 +1667,16 @@
       <c r="A17" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1631,16 +1684,16 @@
       <c r="A18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1648,16 +1701,16 @@
       <c r="A19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="10" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1665,16 +1718,16 @@
       <c r="A20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1682,41 +1735,293 @@
       <c r="A21" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="102">
       <c r="A22" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="4"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="14"/>
+      <c r="B22" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="85">
+      <c r="A23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="221">
+      <c r="A24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="4"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="4"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="4"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="4"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="4"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="4"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="4"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="4"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="4"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="4"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="4"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="4"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="4"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="4"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="4"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="4"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="4"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="4"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="4"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="4"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="4"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="4"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="4"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="4"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="12"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="4"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="12"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="4"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="12"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="4"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="12"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="4"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5D4EE7-0FBA-B245-A3F1-7E24D6E98CF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4520A27-6958-D841-AA66-3A0D29DE03B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
@@ -557,13 +557,6 @@
   </si>
   <si>
     <t>{
-    "nombre": "Lubricantes",
-    "descripcion": "pa que entre derecho y rico",
-    "fecha_creacion": "2019-09-12"
-}</t>
-  </si>
-  <si>
-    <t>{
     "status": "error",
     "message": "Esta categoria ya se encuentra registrado en el sistema."
 }</t>
@@ -663,6 +656,12 @@
             "cat_fecha_creacion": "2019-09-12"
         }
     ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "nombre": "Lubricantes",
+    "descripcion": "pa que entre derecho y rico"
 }</t>
   </si>
 </sst>
@@ -1378,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7EBD3-0618-2440-AF04-A7ADAD9C114C}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1671,7 +1670,7 @@
         <v>76</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>77</v>
@@ -1688,7 +1687,7 @@
         <v>80</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>82</v>
@@ -1731,7 +1730,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="102">
+    <row r="21" spans="1:5" ht="85">
       <c r="A21" s="4" t="s">
         <v>90</v>
       </c>
@@ -1739,61 +1738,61 @@
         <v>91</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="102">
       <c r="A22" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="85">
       <c r="A23" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>86</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="221">
       <c r="A24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>107</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>63</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>52</v>

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4520A27-6958-D841-AA66-3A0D29DE03B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A6514D-6364-1547-8099-69AB7670D031}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,7 @@
   <authors>
     <author>tc={1A7077E6-D0EB-0747-9851-3832696FC62A}</author>
     <author>tc={9FA73004-6F9F-F44D-AF40-0BB20CE2F916}</author>
+    <author>tc={D6EDB8B0-3E95-AA42-B896-2BD89CE112DB}</author>
   </authors>
   <commentList>
     <comment ref="C5" authorId="0" shapeId="0" xr:uid="{1A7077E6-D0EB-0747-9851-3832696FC62A}">
@@ -54,12 +55,22 @@
 ADMIN,SECRET,EMPLOYEE</t>
       </text>
     </comment>
+    <comment ref="C25" authorId="2" shapeId="0" xr:uid="{D6EDB8B0-3E95-AA42-B896-2BD89CE112DB}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    La imagen es opcional,  pero enviela wey
+acepta jpg,png,gif , jpeg
+enviarla tipo file</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="126">
   <si>
     <t>SERVICIO</t>
   </si>
@@ -664,12 +675,117 @@
     "descripcion": "pa que entre derecho y rico"
 }</t>
   </si>
+  <si>
+    <t>Crear producto</t>
+  </si>
+  <si>
+    <t>{
+    "codigo": "PNE-001",
+    "nombre": "cosito",
+    "precio_compra": "19000",
+    "precio_venta": "20000",
+    "categoria": "4",
+    "proveedor": "4",
+    "imagen": ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "Un producto con este codigo ya se encuentra registrado en el sistema."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Producto registrado exitosamente."
+}</t>
+  </si>
+  <si>
+    <t>createProduct</t>
+  </si>
+  <si>
+    <t>Modificar Producto</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Producto modificado exitosamente."
+}</t>
+  </si>
+  <si>
+    <t>UptadeProduct</t>
+  </si>
+  <si>
+    <t>{
+    "id": "2",
+    "codigo": "PNE-001",
+    "nombre": "cosito",
+    "precio_compra": "19000",
+    "precio_venta": "20000",
+    "categoria": "4",
+    "proveedor": "4",
+    "imagen": "",
+    "estado": "1"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "Este producto no se encuentra registrado en el sistema."
+}</t>
+  </si>
+  <si>
+    <t>Eliminar Producto</t>
+  </si>
+  <si>
+    <t>deleteProduct</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "Este producto no esta  registrado en el sistema."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Producto eliminado."
+}</t>
+  </si>
+  <si>
+    <t>Buscar Producto</t>
+  </si>
+  <si>
+    <t>readByProduct</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Consultas realizada.",
+    "data": [
+        {
+            "id_producto": "7",
+            "pro_codigo": "PNE-001",
+            "pro_nombre": "cosito",
+            "pro_precio_compra": "19000",
+            "pro_precio_venta": "20000",
+            "id_categoria": "4",
+            "id_proveedor": "4",
+            "pro_imagen": "img_deafult_product.jpg",
+            "pro_fecha_ultima_modificacion": "2019-09-12",
+            "pro_fecha_creacion": "2019-09-12",
+            "pro_estado": "1"
+        }
+    ]
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -704,6 +820,12 @@
       <sz val="12"/>
       <color rgb="FF505050"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1370,6 +1492,11 @@
     <text>Los valores que pueden llegar en  rol son:
 ADMIN,SECRET,EMPLOYEE</text>
   </threadedComment>
+  <threadedComment ref="C25" dT="2019-09-12T15:00:05.26" personId="{09DFB343-EC5A-084B-9E0D-3C8610716132}" id="{D6EDB8B0-3E95-AA42-B896-2BD89CE112DB}">
+    <text>La imagen es opcional,  pero enviela wey
+acepta jpg,png,gif , jpeg
+enviarla tipo file</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1377,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7EBD3-0618-2440-AF04-A7ADAD9C114C}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1798,33 +1925,73 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="4"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="4"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="4"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="4"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="12"/>
+    <row r="25" spans="1:5" ht="153">
+      <c r="A25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="187">
+      <c r="A26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="85">
+      <c r="A27" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="340">
+      <c r="A28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4"/>

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A6514D-6364-1547-8099-69AB7670D031}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEC7F4E-DF3B-5248-8EDF-44D60CEC9DC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="134">
   <si>
     <t>SERVICIO</t>
   </si>
@@ -776,6 +776,52 @@
             "pro_fecha_ultima_modificacion": "2019-09-12",
             "pro_fecha_creacion": "2019-09-12",
             "pro_estado": "1"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>Modificar estado reserva</t>
+  </si>
+  <si>
+    <t>UptadeStateR</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Estado Modificado exitosamente."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "id": "1",
+    "nombre": "Disponible",
+    "color": "#fff",
+    "descripcion": "Esta disponible"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "Este Estado no esta registrado en el sistema."
+}</t>
+  </si>
+  <si>
+    <t>Buscar Estados Reserva</t>
+  </si>
+  <si>
+    <t>readBystateR</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Consultas realizada.",
+    "data": [
+        {
+            "sr_estado_reserva": "1",
+            "sr_nombre": "Disponible",
+            "sr_descripcion": "Esta disponible",
+            "sr_color": "#fff"
         }
     ]
 }</t>
@@ -1504,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7EBD3-0618-2440-AF04-A7ADAD9C114C}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1993,19 +2039,39 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="4"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="4"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="12"/>
+    <row r="29" spans="1:5" ht="102">
+      <c r="A29" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="204">
+      <c r="A30" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="4"/>

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEC7F4E-DF3B-5248-8EDF-44D60CEC9DC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93433F40-660F-784F-A9FF-6D19672915DE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="142">
   <si>
     <t>SERVICIO</t>
   </si>
@@ -825,6 +825,70 @@
         }
     ]
 }</t>
+  </si>
+  <si>
+    <t>Modificar Configuración facturas</t>
+  </si>
+  <si>
+    <t>UptadeConf</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Configuración Modificada exitosamente."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "id": "1",
+    "resolucion": "1876201208237",
+    "razon_social": "APARTA HOTEL VILLA CAMPESTRE",
+    "nombre_empresa": "INVESTMENTS GROUP S.A.S",
+    "nit": "901233749-6",
+    "direccion": "CARRETERA LA CORDIALIDAD N0 22-72",
+    "telefono": "(095)6632106",
+    "ciudad": "Cartagena, Bolivar (Colombia)",
+    "fecha_inicio": "2018-12-31",
+    "fecha_fin": "2018-12-31",
+    "rango_inicio": "000001",
+    "rango_fin": "VC 200000",
+    "pie_mensaje": "MUCHAS GRACIAS POR SU VISITA."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "Por  favor ingresa la resolución."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Consultas realizada.",
+    "data": {
+        "conf_id_fac": "1",
+        "conf_resolucion": "1876201208237",
+        "conf_razon_social": "APARTA HOTEL VILLA CAMPESTRE",
+        "conf_nombre_empresa": "INVESTMENTS GROUP S.A.S",
+        "conf_nit": "901233749-6",
+        "conf_direccion": "CARRETERA LA CORDIALIDAD N0 22-72",
+        "conf_telefono": "(095)6632106",
+        "conf_ciudad": "Cartagena, Bolivar (Colombia)",
+        "conf_fecha_inicio": "2018-12-31",
+        "conf_fecha_fin": "2018-12-31",
+        "conf_rango_inicio": "000001",
+        "conf_rango_fin": "VC 200000",
+        "conf_mensaje": "MUCHAS GRACIAS POR SU VISITA.",
+        "conf_logo": "930a77b34acfddeb24c47eeb2d92ff54.JPG",
+        "id_usuario": "6"
+    }
+}</t>
+  </si>
+  <si>
+    <t>readByConf</t>
+  </si>
+  <si>
+    <t>Obtener la configuración</t>
   </si>
 </sst>
 </file>
@@ -1550,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7EBD3-0618-2440-AF04-A7ADAD9C114C}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2060,7 +2124,7 @@
       <c r="A30" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="15" t="s">
         <v>132</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -2073,19 +2137,39 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="4"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="12"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="4"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="12"/>
+    <row r="31" spans="1:5" ht="340">
+      <c r="A31" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="409.6">
+      <c r="A32" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="4"/>

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93433F40-660F-784F-A9FF-6D19672915DE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E2A2AD-B332-E14D-9FCB-2D21FFB8488A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
@@ -36,6 +36,7 @@
     <author>tc={1A7077E6-D0EB-0747-9851-3832696FC62A}</author>
     <author>tc={9FA73004-6F9F-F44D-AF40-0BB20CE2F916}</author>
     <author>tc={D6EDB8B0-3E95-AA42-B896-2BD89CE112DB}</author>
+    <author>tc={534F4A33-E0AE-2442-A728-6FAC016281EF}</author>
   </authors>
   <commentList>
     <comment ref="C5" authorId="0" shapeId="0" xr:uid="{1A7077E6-D0EB-0747-9851-3832696FC62A}">
@@ -65,6 +66,14 @@
 enviarla tipo file</t>
       </text>
     </comment>
+    <comment ref="C31" authorId="3" shapeId="0" xr:uid="{534F4A33-E0AE-2442-A728-6FAC016281EF}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    En la imagen  valida lo mismo que valida en el servicio de  modificar producto</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -680,17 +689,6 @@
   </si>
   <si>
     <t>{
-    "codigo": "PNE-001",
-    "nombre": "cosito",
-    "precio_compra": "19000",
-    "precio_venta": "20000",
-    "categoria": "4",
-    "proveedor": "4",
-    "imagen": ""
-}</t>
-  </si>
-  <si>
-    <t>{
     "status": "error",
     "message": "Un producto con este codigo ya se encuentra registrado en el sistema."
 }</t>
@@ -715,19 +713,6 @@
   </si>
   <si>
     <t>UptadeProduct</t>
-  </si>
-  <si>
-    <t>{
-    "id": "2",
-    "codigo": "PNE-001",
-    "nombre": "cosito",
-    "precio_compra": "19000",
-    "precio_venta": "20000",
-    "categoria": "4",
-    "proveedor": "4",
-    "imagen": "",
-    "estado": "1"
-}</t>
   </si>
   <si>
     <t>{
@@ -889,6 +874,32 @@
   </si>
   <si>
     <t>Obtener la configuración</t>
+  </si>
+  <si>
+    <t>{
+    "codigo": "PNE-001",
+    "nombre": "cosito",
+    "precio_compra": "19000",
+    "precio_venta": "20000",
+    "categoria": "4",
+    "proveedor": "4",
+    "imagen": "",
+    "cantidad_disponible" :"4"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "id": "2",
+    "codigo": "PNE-001",
+    "nombre": "cosito",
+    "precio_compra": "19000",
+    "precio_venta": "20000",
+    "categoria": "4",
+    "proveedor": "4",
+    "imagen": "",
+    "estado": "1",
+    "cantidad_disponible" :"4"
+}</t>
   </si>
 </sst>
 </file>
@@ -1607,6 +1618,9 @@
 acepta jpg,png,gif , jpeg
 enviarla tipo file</text>
   </threadedComment>
+  <threadedComment ref="C31" dT="2019-09-12T21:21:02.95" personId="{09DFB343-EC5A-084B-9E0D-3C8610716132}" id="{534F4A33-E0AE-2442-A728-6FAC016281EF}">
+    <text>En la imagen  valida lo mismo que valida en el servicio de  modificar producto</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1614,8 +1628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7EBD3-0618-2440-AF04-A7ADAD9C114C}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2035,69 +2049,69 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="153">
+    <row r="25" spans="1:5" ht="170">
       <c r="A25" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="204">
+      <c r="A26" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="187">
-      <c r="A26" s="4" t="s">
+      <c r="B26" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="E26" s="20" t="s">
         <v>116</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="85">
       <c r="A27" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>101</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="340">
       <c r="A28" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>52</v>
@@ -2105,33 +2119,33 @@
     </row>
     <row r="29" spans="1:5" ht="102">
       <c r="A29" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="8" t="s">
+      <c r="E29" s="20" t="s">
         <v>128</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="204">
       <c r="A30" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>52</v>
@@ -2139,33 +2153,33 @@
     </row>
     <row r="31" spans="1:5" ht="340">
       <c r="A31" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31" s="8" t="s">
+      <c r="E31" s="20" t="s">
         <v>136</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="409.6">
       <c r="A32" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>52</v>

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E2A2AD-B332-E14D-9FCB-2D21FFB8488A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C81F34-5C75-2C4D-859E-4D11C6D3DFC9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="149">
   <si>
     <t>SERVICIO</t>
   </si>
@@ -899,6 +899,42 @@
     "imagen": "",
     "estado": "1",
     "cantidad_disponible" :"4"
+}</t>
+  </si>
+  <si>
+    <t>Modificar Configuración</t>
+  </si>
+  <si>
+    <t>UptadeConfig</t>
+  </si>
+  <si>
+    <t>{
+    "iva": "19",
+    "minutos_cortesia": "7"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "Por favor ingresa el iva."
+}</t>
+  </si>
+  <si>
+    <t>readByConfig</t>
+  </si>
+  <si>
+    <t>Obtener configuración</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Consultas realizada.",
+    "data": {
+        "id_conf": "1",
+        "conf_iva": "19",
+        "conf_minutos_cortesia": "7",
+        "id_usuario": "6"
+    }
 }</t>
   </si>
 </sst>
@@ -1628,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7EBD3-0618-2440-AF04-A7ADAD9C114C}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2185,19 +2221,39 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="4"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="12"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="4"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="12"/>
+    <row r="33" spans="1:5" ht="85">
+      <c r="A33" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="170">
+      <c r="A34" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4"/>

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C81F34-5C75-2C4D-859E-4D11C6D3DFC9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267CABCC-6999-4442-8E7C-1FE97AAC8C6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <author>tc={534F4A33-E0AE-2442-A728-6FAC016281EF}</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{1A7077E6-D0EB-0747-9851-3832696FC62A}">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{1A7077E6-D0EB-0747-9851-3832696FC62A}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -47,7 +47,7 @@
     columnDBSearch es el nombre de  la columna en la tabla usuario por la que se va a buscar</t>
       </text>
     </comment>
-    <comment ref="D6" authorId="1" shapeId="0" xr:uid="{9FA73004-6F9F-F44D-AF40-0BB20CE2F916}">
+    <comment ref="D7" authorId="1" shapeId="0" xr:uid="{9FA73004-6F9F-F44D-AF40-0BB20CE2F916}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -56,7 +56,7 @@
 ADMIN,SECRET,EMPLOYEE</t>
       </text>
     </comment>
-    <comment ref="C25" authorId="2" shapeId="0" xr:uid="{D6EDB8B0-3E95-AA42-B896-2BD89CE112DB}">
+    <comment ref="C27" authorId="2" shapeId="0" xr:uid="{D6EDB8B0-3E95-AA42-B896-2BD89CE112DB}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -66,7 +66,7 @@
 enviarla tipo file</t>
       </text>
     </comment>
-    <comment ref="C31" authorId="3" shapeId="0" xr:uid="{534F4A33-E0AE-2442-A728-6FAC016281EF}">
+    <comment ref="C34" authorId="3" shapeId="0" xr:uid="{534F4A33-E0AE-2442-A728-6FAC016281EF}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="158">
   <si>
     <t>SERVICIO</t>
   </si>
@@ -934,6 +934,51 @@
         "conf_iva": "19",
         "conf_minutos_cortesia": "7",
         "id_usuario": "6"
+    }
+}</t>
+  </si>
+  <si>
+    <t>Obtener Cantidad De productos</t>
+  </si>
+  <si>
+    <t>readByCantProduct</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Consultas realizada.",
+    "data": {
+        "cantidad": "2"
+    }
+}</t>
+  </si>
+  <si>
+    <t>Cantidad de usuarios Registrados</t>
+  </si>
+  <si>
+    <t>readUsuByCant</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Consultas realizada.",
+    "data": {
+        "cantidad": "1"
+    }
+}</t>
+  </si>
+  <si>
+    <t>Cantidad de habitaciones Registradas</t>
+  </si>
+  <si>
+    <t>readByRoomCant</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Consultas realizada.",
+    "data": {
+        "cantidad": "9"
     }
 }</t>
   </si>
@@ -1332,8 +1377,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC0E40D0-175E-A043-B700-52DCB96B4C6A}" name="Tabla1" displayName="Tabla1" ref="A1:E56" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:E56" xr:uid="{F36B9FEE-7844-BB45-951C-914229BB8FBD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC0E40D0-175E-A043-B700-52DCB96B4C6A}" name="Tabla1" displayName="Tabla1" ref="A1:E59" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E59" xr:uid="{F36B9FEE-7844-BB45-951C-914229BB8FBD}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6F49297A-0900-E14B-83B2-2AE43C037C74}" name="SERVICIO" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{57EE9C9E-ADBE-BC4F-AB61-34182D5C23CF}" name="URL" dataDxfId="3"/>
@@ -1642,19 +1687,19 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C5" dT="2019-09-05T20:07:56.70" personId="{09DFB343-EC5A-084B-9E0D-3C8610716132}" id="{1A7077E6-D0EB-0747-9851-3832696FC62A}">
+  <threadedComment ref="C6" dT="2019-09-05T20:07:56.70" personId="{09DFB343-EC5A-084B-9E0D-3C8610716132}" id="{1A7077E6-D0EB-0747-9851-3832696FC62A}">
     <text>columnDBSearch es el nombre de  la columna en la tabla usuario por la que se va a buscar</text>
   </threadedComment>
-  <threadedComment ref="D6" dT="2019-09-07T20:08:08.95" personId="{09DFB343-EC5A-084B-9E0D-3C8610716132}" id="{9FA73004-6F9F-F44D-AF40-0BB20CE2F916}">
+  <threadedComment ref="D7" dT="2019-09-07T20:08:08.95" personId="{09DFB343-EC5A-084B-9E0D-3C8610716132}" id="{9FA73004-6F9F-F44D-AF40-0BB20CE2F916}">
     <text>Los valores que pueden llegar en  rol son:
 ADMIN,SECRET,EMPLOYEE</text>
   </threadedComment>
-  <threadedComment ref="C25" dT="2019-09-12T15:00:05.26" personId="{09DFB343-EC5A-084B-9E0D-3C8610716132}" id="{D6EDB8B0-3E95-AA42-B896-2BD89CE112DB}">
+  <threadedComment ref="C27" dT="2019-09-12T15:00:05.26" personId="{09DFB343-EC5A-084B-9E0D-3C8610716132}" id="{D6EDB8B0-3E95-AA42-B896-2BD89CE112DB}">
     <text>La imagen es opcional,  pero enviela wey
 acepta jpg,png,gif , jpeg
 enviarla tipo file</text>
   </threadedComment>
-  <threadedComment ref="C31" dT="2019-09-12T21:21:02.95" personId="{09DFB343-EC5A-084B-9E0D-3C8610716132}" id="{534F4A33-E0AE-2442-A728-6FAC016281EF}">
+  <threadedComment ref="C34" dT="2019-09-12T21:21:02.95" personId="{09DFB343-EC5A-084B-9E0D-3C8610716132}" id="{534F4A33-E0AE-2442-A728-6FAC016281EF}">
     <text>En la imagen  valida lo mismo que valida en el servicio de  modificar producto</text>
   </threadedComment>
 </ThreadedComments>
@@ -1662,10 +1707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7EBD3-0618-2440-AF04-A7ADAD9C114C}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1745,536 +1790,566 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="340">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:5" ht="119">
+      <c r="A5" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="340">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="85">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="1:5" ht="85">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="68">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:5" ht="68">
+      <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="102">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:5" ht="102">
+      <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="153">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:5" ht="153">
+      <c r="A10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="85">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:5" ht="85">
+      <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="255">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:5" ht="255">
+      <c r="A12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B12" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E12" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="85">
-      <c r="A12" s="17" t="s">
+    <row r="13" spans="1:5" ht="85">
+      <c r="A13" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B13" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="102">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:5" ht="102">
+      <c r="A14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B14" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E14" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="306">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:5" ht="306">
+      <c r="A15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B15" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="102">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:5" ht="119">
+      <c r="A16" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="102">
+      <c r="A17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B17" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E17" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="85">
-      <c r="A16" s="7" t="s">
+    <row r="18" spans="1:5" ht="85">
+      <c r="A18" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B18" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D18" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E18" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="204">
-      <c r="A17" s="4" t="s">
+    <row r="19" spans="1:5" ht="204">
+      <c r="A19" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B19" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="221">
-      <c r="A18" s="4" t="s">
+    <row r="20" spans="1:5" ht="221">
+      <c r="A20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B20" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="85">
-      <c r="A19" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="340">
-      <c r="A20" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="85">
       <c r="A21" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="102">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="340">
       <c r="A22" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="85">
       <c r="A23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="102">
+      <c r="A24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="85">
+      <c r="A25" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B25" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E25" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="221">
-      <c r="A24" s="7" t="s">
+    <row r="26" spans="1:5" ht="221">
+      <c r="A26" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B26" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C26" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D26" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E26" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="170">
-      <c r="A25" s="4" t="s">
+    <row r="27" spans="1:5" ht="170">
+      <c r="A27" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B27" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D27" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E27" s="20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="204">
-      <c r="A26" s="4" t="s">
+    <row r="28" spans="1:5" ht="204">
+      <c r="A28" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B28" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E28" s="20" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="85">
-      <c r="A27" s="4" t="s">
+    <row r="29" spans="1:5" ht="85">
+      <c r="A29" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B29" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D29" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E29" s="20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="340">
-      <c r="A28" s="4" t="s">
+    <row r="30" spans="1:5" ht="119">
+      <c r="A30" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="340">
+      <c r="A31" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B31" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D31" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E31" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="102">
-      <c r="A29" s="4" t="s">
+    <row r="32" spans="1:5" ht="102">
+      <c r="A32" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B32" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D32" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E32" s="20" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="204">
-      <c r="A30" s="4" t="s">
+    <row r="33" spans="1:5" ht="204">
+      <c r="A33" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B33" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E33" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="340">
-      <c r="A31" s="17" t="s">
+    <row r="34" spans="1:5" ht="340">
+      <c r="A34" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B34" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D34" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E34" s="20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="409.6">
-      <c r="A32" s="4" t="s">
+    <row r="35" spans="1:5" ht="409.6">
+      <c r="A35" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B35" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D35" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E35" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="85">
-      <c r="A33" s="4" t="s">
+    <row r="36" spans="1:5" ht="85">
+      <c r="A36" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B36" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D36" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E36" s="20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="170">
-      <c r="A34" s="4" t="s">
+    <row r="37" spans="1:5" ht="170">
+      <c r="A37" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B37" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D37" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E37" s="20" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="4"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="12"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="4"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="12"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="4"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="4"/>
@@ -2409,11 +2484,32 @@
       <c r="D56" s="9"/>
       <c r="E56" s="12"/>
     </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="4"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="12"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="4"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="12"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="4"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="12"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://localhost/villa/createUser" xr:uid="{8198803A-C5B6-5545-881F-089FC0E9D2D2}"/>
     <hyperlink ref="B3" r:id="rId2" display="http://localhost/villa/deleteUser" xr:uid="{58058AEC-C72D-3140-956A-EFB22A67E7A6}"/>
-    <hyperlink ref="B5" r:id="rId3" display="http://localhost/villa/readUsuBy" xr:uid="{4C20E418-3EB5-8C43-818C-19FD1691998D}"/>
+    <hyperlink ref="B6" r:id="rId3" display="http://localhost/villa/readUsuBy" xr:uid="{4C20E418-3EB5-8C43-818C-19FD1691998D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId4"/>

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267CABCC-6999-4442-8E7C-1FE97AAC8C6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DD7CCE-9A48-FB44-9E38-4C79D4A9BB14}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="172">
   <si>
     <t>SERVICIO</t>
   </si>
@@ -980,6 +980,71 @@
     "data": {
         "cantidad": "9"
     }
+}</t>
+  </si>
+  <si>
+    <t>Saber si un  usuario debe iniciar turno</t>
+  </si>
+  <si>
+    <t>mostrarAbrirTurno</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "Este usuario debe iniciar turno."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Este usuario ya inicio turno el dia de hoy."
+}</t>
+  </si>
+  <si>
+    <t>Abrir Turno</t>
+  </si>
+  <si>
+    <t>createTurn</t>
+  </si>
+  <si>
+    <t>{
+    "usuario":"6",
+    "valor_inicial":"20000"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "Este usuario ya registro su turno el día de hoy."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Turno registrado exitosamente."
+}</t>
+  </si>
+  <si>
+    <t>Cerrar Turno</t>
+  </si>
+  <si>
+    <t>UptadeTurn</t>
+  </si>
+  <si>
+    <t>{
+    "usuario":"6"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Turno modificado exitosamente."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "Este usuario no ha registrado su turno el día de hoy."
 }</t>
   </si>
 </sst>
@@ -1709,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7EBD3-0618-2440-AF04-A7ADAD9C114C}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2351,26 +2416,56 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="4"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="4"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="12"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="4"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="12"/>
+    <row r="38" spans="1:5" ht="85">
+      <c r="A38" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="85">
+      <c r="A39" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="85">
+      <c r="A40" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="4"/>

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DD7CCE-9A48-FB44-9E38-4C79D4A9BB14}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3F2706-E855-E842-8D3D-22FAB3A2AB16}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="171">
   <si>
     <t>SERVICIO</t>
   </si>
@@ -1008,12 +1008,6 @@
   </si>
   <si>
     <t>{
-    "usuario":"6",
-    "valor_inicial":"20000"
-}</t>
-  </si>
-  <si>
-    <t>{
     "status": "error",
     "message": "Este usuario ya registro su turno el día de hoy."
 }</t>
@@ -1032,11 +1026,6 @@
   </si>
   <si>
     <t>{
-    "usuario":"6"
-}</t>
-  </si>
-  <si>
-    <t>{
     "status": "success",
     "message": "Turno modificado exitosamente."
 }</t>
@@ -1045,6 +1034,11 @@
     <t>{
     "status": "error",
     "message": "Este usuario no ha registrado su turno el día de hoy."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "valor_inicial":"20000"
 }</t>
   </si>
 </sst>
@@ -1052,7 +1046,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1087,12 +1081,6 @@
       <sz val="12"/>
       <color rgb="FF505050"/>
       <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1775,7 +1763,7 @@
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2441,30 +2429,30 @@
         <v>163</v>
       </c>
       <c r="C39" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" s="20" t="s">
         <v>164</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="85">
       <c r="A40" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="C40" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="E40" s="20" t="s">
         <v>169</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3F2706-E855-E842-8D3D-22FAB3A2AB16}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553D8A44-A161-2848-8EA1-A0F5D3A3298F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,7 @@
     <author>tc={9FA73004-6F9F-F44D-AF40-0BB20CE2F916}</author>
     <author>tc={D6EDB8B0-3E95-AA42-B896-2BD89CE112DB}</author>
     <author>tc={534F4A33-E0AE-2442-A728-6FAC016281EF}</author>
+    <author>tc={1DDB269C-1014-8646-BD6C-312232272698}</author>
   </authors>
   <commentList>
     <comment ref="C6" authorId="0" shapeId="0" xr:uid="{1A7077E6-D0EB-0747-9851-3832696FC62A}">
@@ -74,12 +75,20 @@
     En la imagen  valida lo mismo que valida en el servicio de  modificar producto</t>
       </text>
     </comment>
+    <comment ref="D43" authorId="4" shapeId="0" xr:uid="{1DDB269C-1014-8646-BD6C-312232272698}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    promocion y productos  llegan NULL cuando no es promocion o no  hay productos</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="191">
   <si>
     <t>SERVICIO</t>
   </si>
@@ -416,26 +425,6 @@
     <t>{
     "columnDBSearch": "1",
     "value": "1"
-}</t>
-  </si>
-  <si>
-    <t>{
-    "status": "success",
-    "message": "Consultas realizada.",
-    "data": [
-        {
-            "hab_numero": "2",
-            "id_tipo_habitacion": "1",
-            "hab_detalle": "",
-            "hab_fecha_creacion": "2019-09-08",
-            "hab_estado": "1",
-            "th_nombre_tipo": "Premium",
-            "th_descripcion": "Cama doble para tiki tiki",
-            "th_valor_hora": "20000",
-            "th_valor_persona_adicional": "12000",
-            "th_estado": "1",
-            "th_fecha_creacion": "2019-09-07"
-        }      ]
 }</t>
   </si>
   <si>
@@ -1041,12 +1030,207 @@
     "valor_inicial":"20000"
 }</t>
   </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Consultas realizada.",
+    "data": [
+        {
+            "hab_numero": "1",
+            "hab_detalle": "nada",
+            "sr_estado_reserva": "2",
+            "hab_estado": "1",
+            "th_nombre_tipo": "Premium",
+            "th_valor_hora": "20000",
+            "th_valor_persona_adicional": "12000",
+            "sr_nombre": "Reservada",
+            "sr_color": "#000",
+            "tiempo_transcurido": "16:54:00"
+        },
+        {
+            "hab_numero": "2",
+            "hab_detalle": "",
+            "sr_estado_reserva": "1",
+            "hab_estado": "1",
+            "th_nombre_tipo": "Premium",
+            "th_valor_hora": "20000",
+            "th_valor_persona_adicional": "12000",
+            "sr_nombre": "Disponible",
+            "sr_color": "#fff"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>CrearReserva</t>
+  </si>
+  <si>
+    <t>Crear Reserva</t>
+  </si>
+  <si>
+    <t>{
+    "hab_numero": "1",
+    "promocion": "",
+    "tipo_reserva": "2",
+    "numero_personas_adicionales": "0",
+    "habitacion_decorada": "1",
+    "productos": [
+            {"id":8,"cantidad":1},
+            {"id":9,"cantidad":5}
+        ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "Esta habitación ya se encuentra reservada."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Reserva creada exitosamente."
+}</t>
+  </si>
+  <si>
+    <t>ModificarReserva</t>
+  </si>
+  <si>
+    <t>Moficar reserva</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "Esta habitación no se encuentra reservada."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Reserva modificada exitosamente."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "id_reserva": "38",
+    "numero_personas_adicionales": "1",
+    "habitacion_decorada": "1",
+    "productos": [
+        {"id":8,"cantidad":1},
+        {"id":9,"cantidad":5},
+        {"id":12,"cantidad":10}
+        ]
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detalles de la reserva </t>
+  </si>
+  <si>
+    <t>detallesReserva</t>
+  </si>
+  <si>
+    <t>{
+    "habitacion":"1"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Consultas realizada.",
+    "data": {
+        "reserva": {
+            "hab_numero": "2",
+            "id_tipo_habitacion": "1",
+            "hab_detalle": "",
+            "sr_estado_reserva": "2",
+            "hab_fecha_creacion": "2019-09-08",
+            "hab_estado": "1",
+            "sr_nombre": "Reservada",
+            "sr_descripcion": "",
+            "sr_color": "#000",
+            "th_nombre_tipo": "Premium",
+            "th_descripcion": "Cama doble para tiki tiki",
+            "th_valor_hora": "20000",
+            "th_valor_persona_adicional": "12000",
+            "th_estado": "1",
+            "th_fecha_creacion": "2019-09-07",
+            "id_reserva": "39",
+            "id_usuario": "6",
+            "promo_id": "1",
+            "ra_fecha_hora_ingreso": "2019-09-16 14:13:10",
+            "ra_inicio_tiempo_parcial": null,
+            "ra_fin_tiempo_parcial": null,
+            "ra_numero_personas_adicionales": "1",
+            "ra_habitacion_decorada": "1"
+        },
+        "productos": [
+            {
+                "id_detalle": "131",
+                "id_reserva": "39",
+                "re_det_id_producto": "8",
+                "re_det_cantidad": "1",
+                "re_precio_compra": "19000",
+                "re_det_valor_unidad": "20000",
+                "re_det_valor_total": "20000"
+            },
+            {
+                "id_detalle": "132",
+                "id_reserva": "39",
+                "re_det_id_producto": "9",
+                "re_det_cantidad": "5",
+                "re_precio_compra": "19000",
+                "re_det_valor_unidad": "20000",
+                "re_det_valor_total": "100000"
+            }
+        ]
+    },
+    "promocion": {
+        "id_promocion": "1",
+        "promo_tiempo": "04:00:00",
+        "promo_valor": "30000",
+        "promo_fecha_registro": "2019-09-05",
+        "id_usuario": "6"
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "no hay información asociada a esta consulta verifica si la habitación esta reservada.",
+    "data": null,
+    "promocion": null
+}</t>
+  </si>
+  <si>
+    <t>Cambiar estado reserva</t>
+  </si>
+  <si>
+    <t>cambiarEstadoReserva</t>
+  </si>
+  <si>
+    <t>{
+    "habitacion":3,
+    "estado_reserva",3
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Tiempo parcial Finalizado"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "Este estado de reserva no existe en nuestro sistema."
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1081,6 +1265,12 @@
       <sz val="12"/>
       <color rgb="FF505050"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1755,6 +1945,9 @@
   <threadedComment ref="C34" dT="2019-09-12T21:21:02.95" personId="{09DFB343-EC5A-084B-9E0D-3C8610716132}" id="{534F4A33-E0AE-2442-A728-6FAC016281EF}">
     <text>En la imagen  valida lo mismo que valida en el servicio de  modificar producto</text>
   </threadedComment>
+  <threadedComment ref="D43" dT="2019-09-16T19:15:37.57" personId="{09DFB343-EC5A-084B-9E0D-3C8610716132}" id="{1DDB269C-1014-8646-BD6C-312232272698}">
+    <text>promocion y productos  llegan NULL cuando no es promocion o no  hay productos</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1762,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7EBD3-0618-2440-AF04-A7ADAD9C114C}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1845,16 +2038,16 @@
     </row>
     <row r="5" spans="1:5" ht="119">
       <c r="A5" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>153</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>52</v>
@@ -2013,7 +2206,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="306">
+    <row r="15" spans="1:5" ht="409.6">
       <c r="A15" s="4" t="s">
         <v>61</v>
       </c>
@@ -2024,7 +2217,7 @@
         <v>63</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>52</v>
@@ -2032,16 +2225,16 @@
     </row>
     <row r="16" spans="1:5" ht="119">
       <c r="A16" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>155</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>156</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>52</v>
@@ -2049,101 +2242,101 @@
     </row>
     <row r="17" spans="1:5" ht="102">
       <c r="A17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="C17" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="85">
       <c r="A18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="18" t="s">
+      <c r="E18" s="20" t="s">
         <v>73</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="204">
       <c r="A19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="C19" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="E19" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="221">
       <c r="A20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="C20" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="85">
       <c r="A21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="340">
       <c r="A22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>87</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>88</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>52</v>
@@ -2151,67 +2344,67 @@
     </row>
     <row r="23" spans="1:5" ht="85">
       <c r="A23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="C23" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="102">
       <c r="A24" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="85">
       <c r="A25" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="221">
       <c r="A26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>105</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>106</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>63</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>52</v>
@@ -2219,67 +2412,67 @@
     </row>
     <row r="27" spans="1:5" ht="170">
       <c r="A27" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="20" t="s">
         <v>109</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="204">
       <c r="A28" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="E28" s="20" t="s">
         <v>115</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="85">
       <c r="A29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="C29" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="119">
       <c r="A30" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>149</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>150</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>52</v>
@@ -2287,16 +2480,16 @@
     </row>
     <row r="31" spans="1:5" ht="340">
       <c r="A31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>121</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>122</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>52</v>
@@ -2304,33 +2497,33 @@
     </row>
     <row r="32" spans="1:5" ht="102">
       <c r="A32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="C32" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="E32" s="20" t="s">
         <v>127</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="204">
       <c r="A33" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>130</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>52</v>
@@ -2338,33 +2531,33 @@
     </row>
     <row r="34" spans="1:5" ht="340">
       <c r="A34" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="C34" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="E34" s="20" t="s">
         <v>135</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="409.6">
       <c r="A35" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>52</v>
@@ -2372,33 +2565,33 @@
     </row>
     <row r="36" spans="1:5" ht="85">
       <c r="A36" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="C36" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="D36" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="20" t="s">
         <v>144</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="170">
       <c r="A37" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>52</v>
@@ -2406,82 +2599,122 @@
     </row>
     <row r="38" spans="1:5" ht="85">
       <c r="A38" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="15" t="s">
         <v>158</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>159</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="85">
       <c r="A39" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="C39" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E39" s="20" t="s">
         <v>163</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="85">
       <c r="A40" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>166</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>167</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D40" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E40" s="20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="4"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="12"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="4"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="12"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="4"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="12"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="4"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="12"/>
+    </row>
+    <row r="41" spans="1:5" ht="187">
+      <c r="A41" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="170">
+      <c r="A42" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="409.6">
+      <c r="A43" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="85">
+      <c r="A44" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="4"/>

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553D8A44-A161-2848-8EA1-A0F5D3A3298F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2196BE-C0BD-184B-8377-99BDBCB4D711}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -898,12 +898,6 @@
   </si>
   <si>
     <t>{
-    "iva": "19",
-    "minutos_cortesia": "7"
-}</t>
-  </si>
-  <si>
-    <t>{
     "status": "error",
     "message": "Por favor ingresa el iva."
 }</t>
@@ -913,18 +907,6 @@
   </si>
   <si>
     <t>Obtener configuración</t>
-  </si>
-  <si>
-    <t>{
-    "status": "success",
-    "message": "Consultas realizada.",
-    "data": {
-        "id_conf": "1",
-        "conf_iva": "19",
-        "conf_minutos_cortesia": "7",
-        "id_usuario": "6"
-    }
-}</t>
   </si>
   <si>
     <t>Obtener Cantidad De productos</t>
@@ -1225,12 +1207,32 @@
     "message": "Este estado de reserva no existe en nuestro sistema."
 }</t>
   </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Consultas realizada.",
+    "data": {
+        "id_conf": "1",
+        "conf_iva": "19",
+        "conf_minutos_cortesia": "7",
+        "conf_precio_decoracion":2000
+        "id_usuario": "6"
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "iva": "19",
+    "minutos_cortesia": "7",
+    "precio_decoracion" : 2000
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1265,12 +1267,6 @@
       <sz val="12"/>
       <color rgb="FF505050"/>
       <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1955,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7EBD3-0618-2440-AF04-A7ADAD9C114C}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2038,16 +2034,16 @@
     </row>
     <row r="5" spans="1:5" ht="119">
       <c r="A5" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>52</v>
@@ -2217,7 +2213,7 @@
         <v>63</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>52</v>
@@ -2225,16 +2221,16 @@
     </row>
     <row r="16" spans="1:5" ht="119">
       <c r="A16" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>52</v>
@@ -2463,16 +2459,16 @@
     </row>
     <row r="30" spans="1:5" ht="119">
       <c r="A30" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>52</v>
@@ -2571,27 +2567,27 @@
         <v>142</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>133</v>
       </c>
       <c r="E36" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="187">
+      <c r="A37" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="170">
-      <c r="A37" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>52</v>
@@ -2599,121 +2595,121 @@
     </row>
     <row r="38" spans="1:5" ht="85">
       <c r="A38" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="85">
       <c r="A39" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" s="20" t="s">
         <v>161</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="85">
       <c r="A40" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="187">
       <c r="A41" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E41" s="20" t="s">
         <v>172</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="170">
       <c r="A42" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="E42" s="20" t="s">
         <v>176</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="409.6">
       <c r="A43" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="D43" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="E43" s="20" t="s">
         <v>183</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="85">
       <c r="A44" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="D44" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="E44" s="20" t="s">
         <v>188</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:5">

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2196BE-C0BD-184B-8377-99BDBCB4D711}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A51DB4-ADD5-6D4B-B410-63FF660AB999}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
@@ -1117,66 +1117,6 @@
   </si>
   <si>
     <t>{
-    "status": "success",
-    "message": "Consultas realizada.",
-    "data": {
-        "reserva": {
-            "hab_numero": "2",
-            "id_tipo_habitacion": "1",
-            "hab_detalle": "",
-            "sr_estado_reserva": "2",
-            "hab_fecha_creacion": "2019-09-08",
-            "hab_estado": "1",
-            "sr_nombre": "Reservada",
-            "sr_descripcion": "",
-            "sr_color": "#000",
-            "th_nombre_tipo": "Premium",
-            "th_descripcion": "Cama doble para tiki tiki",
-            "th_valor_hora": "20000",
-            "th_valor_persona_adicional": "12000",
-            "th_estado": "1",
-            "th_fecha_creacion": "2019-09-07",
-            "id_reserva": "39",
-            "id_usuario": "6",
-            "promo_id": "1",
-            "ra_fecha_hora_ingreso": "2019-09-16 14:13:10",
-            "ra_inicio_tiempo_parcial": null,
-            "ra_fin_tiempo_parcial": null,
-            "ra_numero_personas_adicionales": "1",
-            "ra_habitacion_decorada": "1"
-        },
-        "productos": [
-            {
-                "id_detalle": "131",
-                "id_reserva": "39",
-                "re_det_id_producto": "8",
-                "re_det_cantidad": "1",
-                "re_precio_compra": "19000",
-                "re_det_valor_unidad": "20000",
-                "re_det_valor_total": "20000"
-            },
-            {
-                "id_detalle": "132",
-                "id_reserva": "39",
-                "re_det_id_producto": "9",
-                "re_det_cantidad": "5",
-                "re_precio_compra": "19000",
-                "re_det_valor_unidad": "20000",
-                "re_det_valor_total": "100000"
-            }
-        ]
-    },
-    "promocion": {
-        "id_promocion": "1",
-        "promo_tiempo": "04:00:00",
-        "promo_valor": "30000",
-        "promo_fecha_registro": "2019-09-05",
-        "id_usuario": "6"
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
     "status": "error",
     "message": "no hay información asociada a esta consulta verifica si la habitación esta reservada.",
     "data": null,
@@ -1225,6 +1165,77 @@
     "iva": "19",
     "minutos_cortesia": "7",
     "precio_decoracion" : 2000
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Consultas realizada.",
+    "data": {
+        "reserva": {
+            "hab_numero": "3",
+            "id_tipo_habitacion": "1",
+            "hab_detalle": "",
+            "sr_estado_reserva": "5",
+            "hab_fecha_creacion": "2019-09-08",
+            "hab_estado": "1",
+            "sr_nombre": "Promoción",
+            "sr_descripcion": "",
+            "sr_color": "#dsasf",
+            "th_nombre_tipo": "Premium",
+            "th_descripcion": "Cama doble para tiki tiki",
+            "th_valor_hora": "20000",
+            "th_valor_persona_adicional": "12000",
+            "th_estado": "1",
+            "th_fecha_creacion": "2019-09-07",
+            "id_reserva": "41",
+            "id_usuario": "6",
+            "promo_id": "1",
+            "ra_fecha_hora_ingreso": "2019-09-16 16:21:39",
+            "ra_inicio_tiempo_parcial": "2019-09-16 19:17:11",
+            "ra_fin_tiempo_parcial": "2019-09-16 10:52:01",
+            "ra_numero_personas_adicionales": "1",
+            "ra_habitacion_decorada": "1",
+            "ra_tipo_reserva_inicio": "5",
+            "tiempo_transcurido": "12:41:50"
+        },
+        "productos": [
+            {
+                "id_detalle": "145",
+                "id_reserva": "41",
+                "re_det_id_producto": "8",
+                "re_det_cantidad": "2",
+                "re_precio_compra": "19000",
+                "re_det_valor_unidad": "20000",
+                "re_det_valor_total": "40000"
+            },
+            {
+                "id_detalle": "146",
+                "id_reserva": "41",
+                "re_det_id_producto": "9",
+                "re_det_cantidad": "5",
+                "re_precio_compra": "19000",
+                "re_det_valor_unidad": "20000",
+                "re_det_valor_total": "100000"
+            }
+        ],
+        "financieros": {
+            "valorHora": 20000,
+            "decoracion": 2000,
+            "total": 352000,
+            "tiempoTranscurrido": "12:41:50",
+            "tiempoTranscurridoFueraPromo": "08:41:50",
+            "valorPromocion": "30000",
+            "productos": 140000
+        },
+        "promocion": {
+            "id_promocion": "1",
+            "promo_tiempo": "04:00:00",
+            "promo_valor": "30000",
+            "promo_fecha_registro": "2019-09-05",
+            "id_usuario": "6"
+        }
+    }
 }</t>
   </si>
 </sst>
@@ -1951,8 +1962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7EBD3-0618-2440-AF04-A7ADAD9C114C}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2567,7 +2578,7 @@
         <v>142</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>133</v>
@@ -2587,7 +2598,7 @@
         <v>27</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>52</v>
@@ -2689,27 +2700,27 @@
         <v>181</v>
       </c>
       <c r="D43" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E43" s="20" t="s">
         <v>182</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="85">
       <c r="A44" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="C44" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="D44" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="E44" s="20" t="s">
         <v>187</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:5">

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A51DB4-ADD5-6D4B-B410-63FF660AB999}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3FC312-C642-FB4D-8173-73A3BA58B682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="208">
   <si>
     <t>SERVICIO</t>
   </si>
@@ -1236,6 +1236,102 @@
             "id_usuario": "6"
         }
     }
+}</t>
+  </si>
+  <si>
+    <t>createPromo</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Promoción registrada exitosamente."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "error guardando en base de datos,es posible que otra promoción este registrada con este nombre."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "nombre": "2x 100 mil",
+    "duracion": "03:00:00",
+    "valor": "100000"
+}</t>
+  </si>
+  <si>
+    <t>Crear Promoción</t>
+  </si>
+  <si>
+    <t>UptadePromo</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Promoción Modificada exitosamente."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "Esta Promoción no esta registrada en el sistema."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "id": "51",
+    "nombre": "2x 1000 mil",
+    "duracion": "03:00:00",
+    "valor": "100000",
+    "estado",1
+}</t>
+  </si>
+  <si>
+    <t>Cambiar estado  promoción</t>
+  </si>
+  <si>
+    <t>cambiarEstadoPromo</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Promoción Activada."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "id": "5",
+    "estado": "1"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "Esta promoción no esta  registrada en el sistema."
+}</t>
+  </si>
+  <si>
+    <t>Buscar Promoción</t>
+  </si>
+  <si>
+    <t>readByPromo</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Consultas realizada.",
+    "data": [
+         {
+            "id_promocion": "5",
+            "promo_nombre": "2x 1000 mil",
+            "promo_tiempo": "03:00:00",
+            "promo_valor": "100000",
+            "promo_fecha_registro": "2019-09-18",
+            "id_usuario": "6",
+            "promo_estado": "1"
+        }
+    ]
 }</t>
   </si>
 </sst>
@@ -1962,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7EBD3-0618-2440-AF04-A7ADAD9C114C}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2723,33 +2819,73 @@
         <v>187</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="4"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="12"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="4"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="12"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="4"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="12"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="4"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="12"/>
+    <row r="45" spans="1:5" ht="102">
+      <c r="A45" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="119">
+      <c r="A46" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="85">
+      <c r="A47" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="255">
+      <c r="A48" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="4"/>

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3FC312-C642-FB4D-8173-73A3BA58B682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63692ED3-68BA-3541-B791-879D54765AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="217">
   <si>
     <t>SERVICIO</t>
   </si>
@@ -1332,6 +1332,108 @@
             "promo_estado": "1"
         }
     ]
+}</t>
+  </si>
+  <si>
+    <t>Cancelar reserva</t>
+  </si>
+  <si>
+    <t>cancelarReserva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facturar </t>
+  </si>
+  <si>
+    <t>reservaAfactura</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "no hay información asociada a esta consulta verifica si la habitación esta reservada.",
+    "data": null
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Factura creada.",
+    "factura": 14,
+    "data": {
+        "reserva": {
+            "hab_numero": "2",
+            "id_tipo_habitacion": "1",
+            "hab_detalle": "",
+            "sr_estado_reserva": "2",
+            "hab_fecha_creacion": "2019-09-08",
+            "hab_estado": "1",
+            "sr_nombre": "Reservada",
+            "sr_descripcion": "",
+            "sr_color": "#000",
+            "th_nombre_tipo": "Premium",
+            "th_descripcion": "Cama doble para tiki tiki",
+            "th_valor_hora": "20000",
+            "th_valor_persona_adicional": "12000",
+            "th_estado": "1",
+            "th_fecha_creacion": "2019-09-07",
+            "id_reserva": "43",
+            "id_usuario": "6",
+            "promo_id": null,
+            "ra_fecha_hora_ingreso": "2019-09-16 15:00:35",
+            "ra_inicio_tiempo_parcial": null,
+            "ra_fin_tiempo_parcial": null,
+            "ra_numero_personas_adicionales": "0",
+            "ra_habitacion_decorada": "1",
+            "ra_tipo_reserva_inicio": "2",
+            "tiempo_transcurido": "53:15:00",
+            "fecha": "2019-09-18 20:16:10"
+        },
+        "productos": [
+            {
+                "id_detalle": "143",
+                "id_reserva": "43",
+                "re_det_id_producto": "8",
+                "re_det_cantidad": "1",
+                "re_precio_compra": "19000",
+                "re_det_valor_unidad": "20000",
+                "re_det_valor_total": "20000"
+            },
+            {
+                "id_detalle": "144",
+                "id_reserva": "43",
+                "re_det_id_producto": "9",
+                "re_det_cantidad": "5",
+                "re_precio_compra": "19000",
+                "re_det_valor_unidad": "20000",
+                "re_det_valor_total": "100000"
+            }
+        ],
+        "financieros": {
+            "valorHora": 20000,
+            "decoracion": 2000,
+            "total": 1202000,
+            "tiempoTranscurrido": "53:15:00",
+            "productos": 120000
+        },
+        "promocion": null
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "message": "Este id de reserva no esta registrado."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Reserva cancelada"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "id_reserva": "46",
+    "motivo": "Por que si "
 }</t>
   </si>
 </sst>
@@ -2058,8 +2160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7EBD3-0618-2440-AF04-A7ADAD9C114C}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2887,19 +2989,39 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="4"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="12"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="4"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="12"/>
+    <row r="49" spans="1:5" ht="85">
+      <c r="A49" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="409.6">
+      <c r="A50" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="4"/>

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63692ED3-68BA-3541-B791-879D54765AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90C09CA-551D-5A4F-AC37-0D338D687050}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="216">
   <si>
     <t>SERVICIO</t>
   </si>
@@ -1428,12 +1428,6 @@
     <t>{
     "status": "success",
     "message": "Reserva cancelada"
-}</t>
-  </si>
-  <si>
-    <t>{
-    "id_reserva": "46",
-    "motivo": "Por que si "
 }</t>
   </si>
 </sst>
@@ -2161,7 +2155,7 @@
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2996,9 +2990,7 @@
       <c r="B49" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>216</v>
-      </c>
+      <c r="C49" s="9"/>
       <c r="D49" s="8" t="s">
         <v>215</v>
       </c>

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90C09CA-551D-5A4F-AC37-0D338D687050}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86875288-4D7D-6E42-8DF9-C86157BB1E6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="217">
   <si>
     <t>SERVICIO</t>
   </si>
@@ -1355,63 +1355,83 @@
   </si>
   <si>
     <t>{
+    "status": "error",
+    "message": "Este id de reserva no esta registrado."
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Reserva cancelada"
+}</t>
+  </si>
+  <si>
+    <t>{
     "status": "success",
     "message": "Factura creada.",
-    "factura": 14,
+    "factura": 21,
     "data": {
         "reserva": {
-            "hab_numero": "2",
+            "hab_numero": "1",
             "id_tipo_habitacion": "1",
-            "hab_detalle": "",
+            "hab_detalle": "nada",
             "sr_estado_reserva": "2",
-            "hab_fecha_creacion": "2019-09-08",
+            "hab_fecha_creacion": "0000-00-00",
             "hab_estado": "1",
             "sr_nombre": "Reservada",
             "sr_descripcion": "",
-            "sr_color": "#000",
+            "sr_color": "#ffc107",
             "th_nombre_tipo": "Premium",
             "th_descripcion": "Cama doble para tiki tiki",
             "th_valor_hora": "20000",
             "th_valor_persona_adicional": "12000",
             "th_estado": "1",
             "th_fecha_creacion": "2019-09-07",
-            "id_reserva": "43",
+            "id_reserva": "74",
             "id_usuario": "6",
             "promo_id": null,
-            "ra_fecha_hora_ingreso": "2019-09-16 15:00:35",
+            "ra_fecha_hora_ingreso": "2019-09-22 22:18:43",
             "ra_inicio_tiempo_parcial": null,
             "ra_fin_tiempo_parcial": null,
             "ra_numero_personas_adicionales": "0",
             "ra_habitacion_decorada": "1",
             "ra_tipo_reserva_inicio": "2",
-            "tiempo_transcurido": "53:15:00",
-            "fecha": "2019-09-18 20:16:10"
+            "ra_tipo_cortesia": null,
+            "tiempo_transcurido": "00:10:00",
+            "fecha": "2019-09-22 22:29:31",
+            "tipo_pago": "credito",
+            "valor_pago_efectivo": 0,
+            "valor_pago_credito": "125000",
+            "valor_pago_transferencia": 0
         },
         "productos": [
             {
-                "id_detalle": "143",
-                "id_reserva": "43",
+                "id_detalle": "197",
+                "id_reserva": "74",
                 "re_det_id_producto": "8",
                 "re_det_cantidad": "1",
                 "re_precio_compra": "19000",
                 "re_det_valor_unidad": "20000",
-                "re_det_valor_total": "20000"
+                "re_det_valor_total": "20000",
+                "pro_nombre": "Prod 1"
             },
             {
-                "id_detalle": "144",
-                "id_reserva": "43",
+                "id_detalle": "198",
+                "id_reserva": "74",
                 "re_det_id_producto": "9",
                 "re_det_cantidad": "5",
                 "re_precio_compra": "19000",
                 "re_det_valor_unidad": "20000",
-                "re_det_valor_total": "100000"
+                "re_det_valor_total": "100000",
+                "pro_nombre": "Prod 2"
             }
         ],
         "financieros": {
             "valorHora": 20000,
-            "decoracion": 2000,
-            "total": 1202000,
-            "tiempoTranscurrido": "53:15:00",
+            "decoracion": 5000,
+            "totalTiempo": 20000,
+            "total": 145000,
+            "tiempoTranscurrido": "00:10:00",
             "productos": 120000
         },
         "promocion": null
@@ -1420,14 +1440,11 @@
   </si>
   <si>
     <t>{
-    "status": "error",
-    "message": "Este id de reserva no esta registrado."
-}</t>
-  </si>
-  <si>
-    <t>{
-    "status": "success",
-    "message": "Reserva cancelada"
+    "habitacion": "1",
+    "tipo_pago": "credito",
+    "cantidad_efectivo": "0",
+    "cantidad_credito": "125000",
+    "cantidad_transferencia": "0"
 }</t>
   </si>
 </sst>
@@ -2154,8 +2171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7EBD3-0618-2440-AF04-A7ADAD9C114C}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2992,10 +3009,10 @@
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="409.6">
@@ -3006,10 +3023,10 @@
         <v>211</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>212</v>

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86875288-4D7D-6E42-8DF9-C86157BB1E6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7979F89E-BFF2-8649-AF7F-5CF2588FCEDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="221">
   <si>
     <t>SERVICIO</t>
   </si>
@@ -1445,6 +1445,74 @@
     "cantidad_efectivo": "0",
     "cantidad_credito": "125000",
     "cantidad_transferencia": "0"
+}</t>
+  </si>
+  <si>
+    <t>Obtener detalles factura</t>
+  </si>
+  <si>
+    <t>obtenerDetallesFactura</t>
+  </si>
+  <si>
+    <t>{
+    "consecutivo": "3"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Consultas realizada.",
+    "data": [
+        {
+            "fac_consecutivo": "31",
+            "id_reserva": "89",
+            "hab_numero": "2",
+            "id_usuario": "6",
+            "promo_id": null,
+            "fac_fecha_hora_ingreso": "2019-09-25 09:33:13",
+            "fac_inicio_tiempo_parcial": "",
+            "fac_fin_tiempo_parcial": "",
+            "fac_numero_personas_adicionales": "0",
+            "fac_habitacion_decorada": "1",
+            "fac_hora_salida": "2019-09-25 09:37:00",
+            "tipo_pago": "credito",
+            "tiempo_total": "00:03:00",
+            "valor_factura": "122000",
+            "tipo_reserva": "2",
+            "fac_valor_efectivo": "0",
+            "fac_valor_credito": "122000",
+            "fac_valor_transferencia": "0",
+            "productos": [
+                {
+                    "id_detalle": "51",
+                    "fac_consecutivo": "31",
+                    "det_id_producto": "8",
+                    "det_cantidad": "1",
+                    "det_pro_precio_compra": "19000",
+                    "det_valor_unidad": "20000",
+                    "det_valor_total": "20000",
+                    "det_fecha_venta": "2019-09-25 09:37:00",
+                    "pro_nombre": "Prod 1"
+                },
+                {
+                    "id_detalle": "52",
+                    "fac_consecutivo": "31",
+                    "det_id_producto": "9",
+                    "det_cantidad": "5",
+                    "det_pro_precio_compra": "19000",
+                    "det_valor_unidad": "20000",
+                    "det_valor_total": "100000",
+                    "det_fecha_venta": "2019-09-25 09:37:00",
+                    "pro_nombre": "Prod 2"
+                }
+            ],
+            "caja": [
+                {
+                    "usu_nombres": "Cristian Alexis"
+                }
+            ]
+        }
+    ]
 }</t>
   </si>
 </sst>
@@ -2171,8 +2239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7EBD3-0618-2440-AF04-A7ADAD9C114C}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3032,12 +3100,22 @@
         <v>212</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="4"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="12"/>
+    <row r="51" spans="1:5" ht="409.6">
+      <c r="A51" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="4"/>

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7979F89E-BFF2-8649-AF7F-5CF2588FCEDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8265C5-5FEB-554E-833C-C0EDB7382846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="225">
   <si>
     <t>SERVICIO</t>
   </si>
@@ -1509,6 +1509,53 @@
             "caja": [
                 {
                     "usu_nombres": "Cristian Alexis"
+                }
+            ]
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>Obtener detalles movimientos</t>
+  </si>
+  <si>
+    <t>obtenerDetalleMovimientos</t>
+  </si>
+  <si>
+    <t>{
+    "id_movimiento": "13"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Consultas realizada.",
+    "data": [
+        {
+            "id_movimiento": "13",
+            "id_usuario": "6",
+            "mov_fecha": "2019-08-20",
+            "mov_tipo": "sumar",
+            "mov_observaciones": "jugyfdgh",
+            "mov_fecha_realizacion": "2019-09-24",
+            "total": "0",
+            "usu_nombres": "Cristian Alexis",
+            "productos": [
+                {
+                    "id_det_mov": "2",
+                    "id_movimiento": "13",
+                    "id_producto": "8",
+                    "det_mov_cantidad": "1",
+                    "fecha": "2019-09-24",
+                    "pro_nombre": "Prod 1"
+                },
+                {
+                    "id_det_mov": "3",
+                    "id_movimiento": "13",
+                    "id_producto": "9",
+                    "det_mov_cantidad": "5",
+                    "fecha": "2019-09-24",
+                    "pro_nombre": "Prod 2"
                 }
             ]
         }
@@ -2240,7 +2287,7 @@
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3117,12 +3164,22 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="4"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="12"/>
+    <row r="52" spans="1:5" ht="409.6">
+      <c r="A52" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="4"/>

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8265C5-5FEB-554E-833C-C0EDB7382846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B27F5E2-3698-C044-8BD7-E1838AE64605}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
@@ -1459,6 +1459,53 @@
 }</t>
   </si>
   <si>
+    <t>Obtener detalles movimientos</t>
+  </si>
+  <si>
+    <t>obtenerDetalleMovimientos</t>
+  </si>
+  <si>
+    <t>{
+    "id_movimiento": "13"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Consultas realizada.",
+    "data": [
+        {
+            "id_movimiento": "13",
+            "id_usuario": "6",
+            "mov_fecha": "2019-08-20",
+            "mov_tipo": "sumar",
+            "mov_observaciones": "jugyfdgh",
+            "mov_fecha_realizacion": "2019-09-24",
+            "total": "0",
+            "usu_nombres": "Cristian Alexis",
+            "productos": [
+                {
+                    "id_det_mov": "2",
+                    "id_movimiento": "13",
+                    "id_producto": "8",
+                    "det_mov_cantidad": "1",
+                    "fecha": "2019-09-24",
+                    "pro_nombre": "Prod 1"
+                },
+                {
+                    "id_det_mov": "3",
+                    "id_movimiento": "13",
+                    "id_producto": "9",
+                    "det_mov_cantidad": "5",
+                    "fecha": "2019-09-24",
+                    "pro_nombre": "Prod 2"
+                }
+            ]
+        }
+    ]
+}</t>
+  </si>
+  <si>
     <t>{
     "status": "success",
     "message": "Consultas realizada.",
@@ -1510,54 +1557,24 @@
                 {
                     "usu_nombres": "Cristian Alexis"
                 }
-            ]
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>Obtener detalles movimientos</t>
-  </si>
-  <si>
-    <t>obtenerDetalleMovimientos</t>
-  </si>
-  <si>
-    <t>{
-    "id_movimiento": "13"
-}</t>
-  </si>
-  <si>
-    <t>{
-    "status": "success",
-    "message": "Consultas realizada.",
-    "data": [
-        {
-            "id_movimiento": "13",
-            "id_usuario": "6",
-            "mov_fecha": "2019-08-20",
-            "mov_tipo": "sumar",
-            "mov_observaciones": "jugyfdgh",
-            "mov_fecha_realizacion": "2019-09-24",
-            "total": "0",
-            "usu_nombres": "Cristian Alexis",
-            "productos": [
-                {
-                    "id_det_mov": "2",
-                    "id_movimiento": "13",
-                    "id_producto": "8",
-                    "det_mov_cantidad": "1",
-                    "fecha": "2019-09-24",
-                    "pro_nombre": "Prod 1"
-                },
-                {
-                    "id_det_mov": "3",
-                    "id_movimiento": "13",
-                    "id_producto": "9",
-                    "det_mov_cantidad": "5",
-                    "fecha": "2019-09-24",
-                    "pro_nombre": "Prod 2"
-                }
-            ]
+            ],
+            "configuracionFatura": {
+                "conf_id_fac": "1",
+                "conf_resolucion": "1876201208237",
+                "conf_razon_social": "APARTA HOTEL VILLA CAMPESTRE",
+                "conf_nombre_empresa": "INVESTMENTS GROUP S.A.S",
+                "conf_nit": "901233749-6",
+                "conf_direccion": "CARRETERA LA CORDIALIDAD N0 22-72",
+                "conf_telefono": "(095)6632106",
+                "conf_ciudad": "Cartagena, Bolivar (Colombia)",
+                "conf_fecha_inicio": "2018-12-31",
+                "conf_fecha_fin": "2018-12-31",
+                "conf_rango_inicio": "000001",
+                "conf_rango_fin": "VC 200000",
+                "conf_mensaje": "MUCHAS GRACIAS POR SU VISITA.",
+                "conf_logo": "930a77b34acfddeb24c47eeb2d92ff54.JPG",
+                "id_usuario": "6"
+            }
         }
     ]
 }</t>
@@ -2286,8 +2303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7EBD3-0618-2440-AF04-A7ADAD9C114C}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3158,7 +3175,7 @@
         <v>219</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E51" s="20" t="s">
         <v>52</v>
@@ -3166,16 +3183,16 @@
     </row>
     <row r="52" spans="1:5" ht="409.6">
       <c r="A52" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="C52" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="D52" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>52</v>

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B27F5E2-3698-C044-8BD7-E1838AE64605}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BA3F68-2659-FD4D-B0D9-2605B6C880E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="229">
   <si>
     <t>SERVICIO</t>
   </si>
@@ -1577,6 +1577,796 @@
             }
         }
     ]
+}</t>
+  </si>
+  <si>
+    <t>Reporte VENTAS</t>
+  </si>
+  <si>
+    <t>reporteVentas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "status": "success",
+    "message": "Consultas realizada.",
+    "data": {
+        "catidadDeFacturas": "37",
+        "totalEfectivo": "1,594,000",
+        "totalCredito": "1,464,000",
+        "totalTransferencia": "30,000",
+        "totalVentas": "3,088,000",
+        "facturasRealizadas": [
+            {
+                "fac_consecutivo": "25",
+                "id_reserva": "80",
+                "hab_numero": "2",
+                "id_usuario": "6",
+                "promo_id": null,
+                "fac_fecha_hora_ingreso": "2019-09-23 14:57:00",
+                "fac_inicio_tiempo_parcial": "",
+                "fac_fin_tiempo_parcial": "",
+                "fac_numero_personas_adicionales": "0",
+                "fac_habitacion_decorada": "1",
+                "fac_hora_salida": "2019-09-23 14:57:24",
+                "tipo_pago": "credito",
+                "tiempo_total": "00:00:24",
+                "valor_factura": "122000",
+                "tipo_reserva": "2",
+                "fac_valor_efectivo": "0",
+                "fac_valor_credito": "122000",
+                "fac_valor_transferencia": "0",
+                "productos": [
+                    {
+                        "id_detalle": "44",
+                        "fac_consecutivo": "25",
+                        "det_id_producto": "8",
+                        "det_cantidad": "1",
+                        "det_pro_precio_compra": "19000",
+                        "det_valor_unidad": "20000",
+                        "det_valor_total": "20000",
+                        "det_fecha_venta": "2019-09-23 14:57:24",
+                        "pro_nombre": "Prod 1"
+                    },
+                    {
+                        "id_detalle": "45",
+                        "fac_consecutivo": "25",
+                        "det_id_producto": "9",
+                        "det_cantidad": "5",
+                        "det_pro_precio_compra": "19000",
+                        "det_valor_unidad": "20000",
+                        "det_valor_total": "100000",
+                        "det_fecha_venta": "2019-09-23 14:57:24",
+                        "pro_nombre": "Prod 2"
+                    }
+                ]
+            },
+            {
+                "fac_consecutivo": "26",
+                "id_reserva": "81",
+                "hab_numero": "3",
+                "id_usuario": "6",
+                "promo_id": null,
+                "fac_fecha_hora_ingreso": "2019-09-24 14:44:36",
+                "fac_inicio_tiempo_parcial": "",
+                "fac_fin_tiempo_parcial": "",
+                "fac_numero_personas_adicionales": "0",
+                "fac_habitacion_decorada": "0",
+                "fac_hora_salida": "2019-09-24 16:19:21",
+                "tipo_pago": "efectivo",
+                "tiempo_total": "01:34:00",
+                "valor_factura": "40000",
+                "tipo_reserva": "2",
+                "fac_valor_efectivo": "40000",
+                "fac_valor_credito": "0",
+                "fac_valor_transferencia": "0",
+                "productos": [
+                    {
+                        "id_detalle": "46",
+                        "fac_consecutivo": "26",
+                        "det_id_producto": "8",
+                        "det_cantidad": "1",
+                        "det_pro_precio_compra": "19000",
+                        "det_valor_unidad": "20000",
+                        "det_valor_total": "20000",
+                        "det_fecha_venta": "2019-09-24 16:19:21",
+                        "pro_nombre": "Prod 1"
+                    }
+                ]
+            },
+            {
+                "fac_consecutivo": "27",
+                "id_reserva": "82",
+                "hab_numero": "2",
+                "id_usuario": "6",
+                "promo_id": null,
+                "fac_fecha_hora_ingreso": "2019-09-24 16:21:22",
+                "fac_inicio_tiempo_parcial": "",
+                "fac_fin_tiempo_parcial": "",
+                "fac_numero_personas_adicionales": "0",
+                "fac_habitacion_decorada": "0",
+                "fac_hora_salida": "2019-09-24 16:40:40",
+                "tipo_pago": "efectivo",
+                "tiempo_total": "00:19:00",
+                "valor_factura": "40000",
+                "tipo_reserva": "2",
+                "fac_valor_efectivo": "40000",
+                "fac_valor_credito": "0",
+                "fac_valor_transferencia": "0",
+                "productos": [
+                    {
+                        "id_detalle": "47",
+                        "fac_consecutivo": "27",
+                        "det_id_producto": "8",
+                        "det_cantidad": "1",
+                        "det_pro_precio_compra": "19000",
+                        "det_valor_unidad": "20000",
+                        "det_valor_total": "20000",
+                        "det_fecha_venta": "2019-09-24 16:40:40",
+                        "pro_nombre": "Prod 1"
+                    }
+                ]
+            },
+            {
+                "fac_consecutivo": "28",
+                "id_reserva": "83",
+                "hab_numero": "3",
+                "id_usuario": "6",
+                "promo_id": null,
+                "fac_fecha_hora_ingreso": "2019-09-24 16:41:04",
+                "fac_inicio_tiempo_parcial": "",
+                "fac_fin_tiempo_parcial": "",
+                "fac_numero_personas_adicionales": "0",
+                "fac_habitacion_decorada": "0",
+                "fac_hora_salida": "2019-09-24 16:45:28",
+                "tipo_pago": "efectivo",
+                "tiempo_total": "00:04:00",
+                "valor_factura": "40000",
+                "tipo_reserva": "2",
+                "fac_valor_efectivo": "40000",
+                "fac_valor_credito": "0",
+                "fac_valor_transferencia": "0",
+                "productos": [
+                    {
+                        "id_detalle": "48",
+                        "fac_consecutivo": "28",
+                        "det_id_producto": "8",
+                        "det_cantidad": "1",
+                        "det_pro_precio_compra": "19000",
+                        "det_valor_unidad": "20000",
+                        "det_valor_total": "20000",
+                        "det_fecha_venta": "2019-09-24 16:45:28",
+                        "pro_nombre": "Prod 1"
+                    }
+                ]
+            },
+            {
+                "fac_consecutivo": "29",
+                "id_reserva": "84",
+                "hab_numero": "1",
+                "id_usuario": "6",
+                "promo_id": null,
+                "fac_fecha_hora_ingreso": "2019-09-24 16:45:57",
+                "fac_inicio_tiempo_parcial": "",
+                "fac_fin_tiempo_parcial": "",
+                "fac_numero_personas_adicionales": "0",
+                "fac_habitacion_decorada": "0",
+                "fac_hora_salida": "2019-09-24 16:46:09",
+                "tipo_pago": "efectivo",
+                "tiempo_total": "00:00:12",
+                "valor_factura": "20000",
+                "tipo_reserva": "2",
+                "fac_valor_efectivo": "20000",
+                "fac_valor_credito": "0",
+                "fac_valor_transferencia": "0",
+                "productos": [
+                    {
+                        "id_detalle": "49",
+                        "fac_consecutivo": "29",
+                        "det_id_producto": "8",
+                        "det_cantidad": "1",
+                        "det_pro_precio_compra": "19000",
+                        "det_valor_unidad": "20000",
+                        "det_valor_total": "20000",
+                        "det_fecha_venta": "2019-09-24 16:46:09",
+                        "pro_nombre": "Prod 1"
+                    }
+                ]
+            },
+            {
+                "fac_consecutivo": "30",
+                "id_reserva": "87",
+                "hab_numero": "1",
+                "id_usuario": "6",
+                "promo_id": null,
+                "fac_fecha_hora_ingreso": "2019-09-25 09:03:40",
+                "fac_inicio_tiempo_parcial": "",
+                "fac_fin_tiempo_parcial": "",
+                "fac_numero_personas_adicionales": "0",
+                "fac_habitacion_decorada": "0",
+                "fac_hora_salida": "2019-09-25 09:04:44",
+                "tipo_pago": "efectivo",
+                "tiempo_total": "00:01:00",
+                "valor_factura": "20000",
+                "tipo_reserva": "2",
+                "fac_valor_efectivo": "20000",
+                "fac_valor_credito": "0",
+                "fac_valor_transferencia": "0",
+                "productos": [
+                    {
+                        "id_detalle": "50",
+                        "fac_consecutivo": "30",
+                        "det_id_producto": "9",
+                        "det_cantidad": "1",
+                        "det_pro_precio_compra": "19000",
+                        "det_valor_unidad": "20000",
+                        "det_valor_total": "20000",
+                        "det_fecha_venta": "2019-09-25 09:04:44",
+                        "pro_nombre": "Prod 2"
+                    }
+                ]
+            },
+            {
+                "fac_consecutivo": "31",
+                "id_reserva": "89",
+                "hab_numero": "2",
+                "id_usuario": "6",
+                "promo_id": null,
+                "fac_fecha_hora_ingreso": "2019-09-25 09:33:13",
+                "fac_inicio_tiempo_parcial": "",
+                "fac_fin_tiempo_parcial": "",
+                "fac_numero_personas_adicionales": "0",
+                "fac_habitacion_decorada": "1",
+                "fac_hora_salida": "2019-09-25 09:37:00",
+                "tipo_pago": "credito",
+                "tiempo_total": "00:03:00",
+                "valor_factura": "122000",
+                "tipo_reserva": "2",
+                "fac_valor_efectivo": "0",
+                "fac_valor_credito": "122000",
+                "fac_valor_transferencia": "0",
+                "productos": [
+                    {
+                        "id_detalle": "51",
+                        "fac_consecutivo": "31",
+                        "det_id_producto": "8",
+                        "det_cantidad": "1",
+                        "det_pro_precio_compra": "19000",
+                        "det_valor_unidad": "20000",
+                        "det_valor_total": "20000",
+                        "det_fecha_venta": "2019-09-25 09:37:00",
+                        "pro_nombre": "Prod 1"
+                    },
+                    {
+                        "id_detalle": "52",
+                        "fac_consecutivo": "31",
+                        "det_id_producto": "9",
+                        "det_cantidad": "5",
+                        "det_pro_precio_compra": "19000",
+                        "det_valor_unidad": "20000",
+                        "det_valor_total": "100000",
+                        "det_fecha_venta": "2019-09-25 09:37:00",
+                        "pro_nombre": "Prod 2"
+                    }
+                ]
+            },
+            {
+                "fac_consecutivo": "32",
+                "id_reserva": "90",
+                "hab_numero": "2",
+                "id_usuario": "6",
+                "promo_id": null,
+                "fac_fecha_hora_ingreso": "2019-09-25 09:38:30",
+                "fac_inicio_tiempo_parcial": "",
+                "fac_fin_tiempo_parcial": "",
+                "fac_numero_personas_adicionales": "0",
+                "fac_habitacion_decorada": "1",
+                "fac_hora_salida": "2019-09-25 09:38:43",
+                "tipo_pago": "credito",
+                "tiempo_total": "00:00:13",
+                "valor_factura": "122000",
+                "tipo_reserva": "2",
+                "fac_valor_efectivo": "0",
+                "fac_valor_credito": "122000",
+                "fac_valor_transferencia": "0",
+                "productos": [
+                    {
+                        "id_detalle": "53",
+                        "fac_consecutivo": "32",
+                        "det_id_producto": "8",
+                        "det_cantidad": "1",
+                        "det_pro_precio_compra": "19000",
+                        "det_valor_unidad": "20000",
+                        "det_valor_total": "20000",
+                        "det_fecha_venta": "2019-09-25 09:38:43",
+                        "pro_nombre": "Prod 1"
+                    },
+                    {
+                        "id_detalle": "54",
+                        "fac_consecutivo": "32",
+                        "det_id_producto": "9",
+                        "det_cantidad": "5",
+                        "det_pro_precio_compra": "19000",
+                        "det_valor_unidad": "20000",
+                        "det_valor_total": "100000",
+                        "det_fecha_venta": "2019-09-25 09:38:43",
+                        "pro_nombre": "Prod 2"
+                    }
+                ]
+            },
+            {
+                "fac_consecutivo": "33",
+                "id_reserva": "88",
+                "hab_numero": "1",
+                "id_usuario": "6",
+                "promo_id": null,
+                "fac_fecha_hora_ingreso": "2019-09-25 09:07:31",
+                "fac_inicio_tiempo_parcial": "",
+                "fac_fin_tiempo_parcial": "",
+                "fac_numero_personas_adicionales": "0",
+                "fac_habitacion_decorada": "0",
+                "fac_hora_salida": "2019-09-25 09:50:10",
+                "tipo_pago": "efectivo",
+                "tiempo_total": "00:42:00",
+                "valor_factura": "55000",
+                "tipo_reserva": "2",
+                "fac_valor_efectivo": "55000",
+                "fac_valor_credito": "0",
+                "fac_valor_transferencia": "0",
+                "productos": [
+                    {
+                        "id_detalle": "55",
+                        "fac_consecutivo": "33",
+                        "det_id_producto": "9",
+                        "det_cantidad": "1",
+                        "det_pro_precio_compra": "19000",
+                        "det_valor_unidad": "20000",
+                        "det_valor_total": "20000",
+                        "det_fecha_venta": "2019-09-25 09:50:10",
+                        "pro_nombre": "Prod 2"
+                    },
+                    {
+                        "id_detalle": "56",
+                        "fac_consecutivo": "33",
+                        "det_id_producto": "13",
+                        "det_cantidad": "1",
+                        "det_pro_precio_compra": "98765",
+                        "det_valor_unidad": "15000",
+                        "det_valor_total": "15000",
+                        "det_fecha_venta": "2019-09-25 09:50:10",
+                        "pro_nombre": "Prod 4"
+                    }
+                ]
+            },
+            {
+                "fac_consecutivo": "34",
+                "id_reserva": "91",
+                "hab_numero": "2",
+                "id_usuario": "6",
+                "promo_id": null,
+                "fac_fecha_hora_ingreso": "2019-09-25 09:50:21",
+                "fac_inicio_tiempo_parcial": "",
+                "fac_fin_tiempo_parcial": "",
+                "fac_numero_personas_adicionales": "0",
+                "fac_habitacion_decorada": "0",
+                "fac_hora_salida": "2019-09-25 09:51:49",
+                "tipo_pago": "efectivo",
+                "tiempo_total": "00:01:00",
+                "valor_factura": "20000",
+                "tipo_reserva": "2",
+                "fac_valor_efectivo": "20000",
+                "fac_valor_credito": "0",
+                "fac_valor_transferencia": "0",
+                "productos": [
+                    {
+                        "id_detalle": "57",
+                        "fac_consecutivo": "34",
+                        "det_id_producto": "9",
+                        "det_cantidad": "1",
+                        "det_pro_precio_compra": "19000",
+                        "det_valor_unidad": "20000",
+                        "det_valor_total": "20000",
+                        "det_fecha_venta": "2019-09-25 09:51:49",
+                        "pro_nombre": "Prod 2"
+                    }
+                ]
+            },
+            {
+                "fac_consecutivo": "35",
+                "id_reserva": "92",
+                "hab_numero": "1",
+                "id_usuario": "6",
+                "promo_id": null,
+                "fac_fecha_hora_ingreso": "2019-09-25 09:54:23",
+                "fac_inicio_tiempo_parcial": "",
+                "fac_fin_tiempo_parcial": "",
+                "fac_numero_personas_adicionales": "0",
+                "fac_habitacion_decorada": "0",
+                "fac_hora_salida": "2019-09-25 09:55:52",
+                "tipo_pago": "efectivo",
+                "tiempo_total": "00:01:00",
+                "valor_factura": "0",
+                "tipo_reserva": "2",
+                "fac_valor_efectivo": "0",
+                "fac_valor_credito": "0",
+                "fac_valor_transferencia": "0",
+                "productos": []
+            },
+            {
+                "fac_consecutivo": "36",
+                "id_reserva": "93",
+                "hab_numero": "3",
+                "id_usuario": "6",
+                "promo_id": null,
+                "fac_fecha_hora_ingreso": "2019-09-25 10:07:12",
+                "fac_inicio_tiempo_parcial": "",
+                "fac_fin_tiempo_parcial": "",
+                "fac_numero_personas_adicionales": "0",
+                "fac_habitacion_decorada": "0",
+                "fac_hora_salida": "2019-09-25 10:08:10",
+                "tipo_pago": "efectivo",
+                "tiempo_total": "00:00:58",
+                "valor_factura": "0",
+                "tipo_reserva": "2",
+                "fac_valor_efectivo": "0",
+                "fac_valor_credito": "0",
+                "fac_valor_transferencia": "0",
+                "productos": []
+            },
+            {
+                "fac_consecutivo": "37",
+                "id_reserva": "94",
+                "hab_numero": "4",
+                "id_usuario": "6",
+                "promo_id": null,
+                "fac_fecha_hora_ingreso": "2019-09-25 10:09:08",
+                "fac_inicio_tiempo_parcial": "",
+                "fac_fin_tiempo_parcial": "",
+                "fac_numero_personas_adicionales": "0",
+                "fac_habitacion_decorada": "0",
+                "fac_hora_salida": "2019-09-25 10:09:13",
+                "tipo_pago": "efectivo",
+                "tiempo_total": "00:00:05",
+                "valor_factura": "0",
+                "tipo_reserva": "2",
+                "fac_valor_efectivo": "0",
+                "fac_valor_credito": "0",
+                "fac_valor_transferencia": "0",
+                "productos": []
+            },
+            {
+                "fac_consecutivo": "38",
+                "id_reserva": "95",
+                "hab_numero": "5",
+                "id_usuario": "6",
+                "promo_id": null,
+                "fac_fecha_hora_ingreso": "2019-09-25 10:13:32",
+                "fac_inicio_tiempo_parcial": "",
+                "fac_fin_tiempo_parcial": "",
+                "fac_numero_personas_adicionales": "0",
+                "fac_habitacion_decorada": "0",
+                "fac_hora_salida": "2019-09-25 10:13:38",
+                "tipo_pago": "efectivo",
+                "tiempo_total": "00:00:06",
+                "valor_factura": "0",
+                "tipo_reserva": "2",
+                "fac_valor_efectivo": "0",
+                "fac_valor_credito": "0",
+                "fac_valor_transferencia": "0",
+                "productos": []
+            },
+            {
+                "fac_consecutivo": "39",
+                "id_reserva": "96",
+                "hab_numero": "6",
+                "id_usuario": "6",
+                "promo_id": null,
+                "fac_fecha_hora_ingreso": "2019-09-25 10:18:01",
+                "fac_inicio_tiempo_parcial": "",
+                "fac_fin_tiempo_parcial": "",
+                "fac_numero_personas_adicionales": "0",
+                "fac_habitacion_decorada": "0",
+                "fac_hora_salida": "2019-09-25 10:18:06",
+                "tipo_pago": "efectivo",
+                "tiempo_total": "00:00:05",
+                "valor_factura": "0",
+                "tipo_reserva": "2",
+                "fac_valor_efectivo": "0",
+                "fac_valor_credito": "0",
+                "fac_valor_transferencia": "0",
+                "productos": []
+            },
+            {
+                "fac_consecutivo": "40",
+                "id_reserva": "97",
+                "hab_numero": "7",
+                "id_usuario": "6",
+                "promo_id": null,
+                "fac_fecha_hora_ingreso": "2019-09-25 10:24:42",
+                "fac_inicio_tiempo_parcial": "",
+                "fac_fin_tiempo_parcial": "",
+                "fac_numero_personas_adicionales": "0",
+                "fac_habitacion_decorada": "0",
+                "fac_hora_salida": "2019-09-25 10:24:51",
+                "tipo_pago": "efectivo",
+                "tiempo_total": "00:00:09",
+                "valor_factura": "20000",
+                "tipo_reserva": "2",
+                "fac_valor_efectivo": "20000",
+                "fac_valor_credito": "0",
+                "fac_valor_transferencia": "0",
+                "productos": [
+                    {
+                        "id_detalle": "58",
+                        "fac_consecutivo": "40",
+                        "det_id_producto": "8",
+                        "det_cantidad": "1",
+                        "det_pro_precio_compra": "19000",
+                        "det_valor_unidad": "20000",
+                        "det_valor_total": "20000",
+                        "det_fecha_venta": "2019-09-25 10:24:51",
+                        "pro_nombre": "Prod 1"
+                    }
+                ]
+            },
+            {
+                "fac_consecutivo": "41",
+                "id_reserva": "98",
+                "hab_numero": "8",
+                "id_usuario": "6",
+                "promo_id": null,
+                "fac_fecha_hora_ingreso": "2019-09-25 10:25:35",
+                "fac_inicio_tiempo_parcial": "",
+                "fac_fin_tiempo_parcial": "",
+                "fac_numero_personas_adicionales": "0",
+                "fac_habitacion_decorada": "0",
+                "fac_hora_salida": "2019-09-25 10:25:41",
+                "tipo_pago": "efectivo",
+                "tiempo_total": "00:00:06",
+                "valor_factura": "20000",
+                "tipo_reserva": "2",
+                "fac_valor_efectivo": "20000",
+                "fac_valor_credito": "0",
+                "fac_valor_transferencia": "0",
+                "productos": [
+                    {
+                        "id_detalle": "59",
+                        "fac_consecutivo": "41",
+                        "det_id_producto": "8",
+                        "det_cantidad": "1",
+                        "det_pro_precio_compra": "19000",
+                        "det_valor_unidad": "20000",
+                        "det_valor_total": "20000",
+                        "det_fecha_venta": "2019-09-25 10:25:41",
+                        "pro_nombre": "Prod 1"
+                    }
+                ]
+            },
+            {
+                "fac_consecutivo": "42",
+                "id_reserva": "99",
+                "hab_numero": "2",
+                "id_usuario": "6",
+                "promo_id": null,
+                "fac_fecha_hora_ingreso": "2019-09-25 10:39:19",
+                "fac_inicio_tiempo_parcial": "",
+                "fac_fin_tiempo_parcial": "",
+                "fac_numero_personas_adicionales": "0",
+                "fac_habitacion_decorada": "1",
+                "fac_hora_salida": "2019-09-25 10:39:22",
+                "tipo_pago": "credito",
+                "tiempo_total": "00:00:03",
+                "valor_factura": "122000",
+                "tipo_reserva": "2",
+                "fac_valor_efectivo": "0",
+                "fac_valor_credito": "122000",
+                "fac_valor_transferencia": "0",
+                "productos": [
+                    {
+                        "id_detalle": "60",
+                        "fac_consecutivo": "42",
+                        "det_id_producto": "8",
+                        "det_cantidad": "1",
+                        "det_pro_precio_compra": "19000",
+                        "det_valor_unidad": "20000",
+                        "det_valor_total": "20000",
+                        "det_fecha_venta": "2019-09-25 10:39:22",
+                        "pro_nombre": "Prod 1"
+                    },
+                    {
+                        "id_detalle": "61",
+                        "fac_consecutivo": "42",
+                        "det_id_producto": "9",
+                        "det_cantidad": "5",
+                        "det_pro_precio_compra": "19000",
+                        "det_valor_unidad": "20000",
+                        "det_valor_total": "100000",
+                        "det_fecha_venta": "2019-09-25 10:39:22",
+                        "pro_nombre": "Prod 2"
+                    }
+                ]
+            },
+            {
+                "fac_consecutivo": "43",
+                "id_reserva": "100",
+                "hab_numero": "2",
+                "id_usuario": "6",
+                "promo_id": null,
+                "fac_fecha_hora_ingreso": "2019-09-25 10:44:02",
+                "fac_inicio_tiempo_parcial": "",
+                "fac_fin_tiempo_parcial": "",
+                "fac_numero_personas_adicionales": "0",
+                "fac_habitacion_decorada": "1",
+                "fac_hora_salida": "2019-09-25 10:44:03",
+                "tipo_pago": "credito",
+                "tiempo_total": "00:00:01",
+                "valor_factura": "122000",
+                "tipo_reserva": "2",
+                "fac_valor_efectivo": "0",
+                "fac_valor_credito": "122000",
+                "fac_valor_transferencia": "0",
+                "productos": [
+                    {
+                        "id_detalle": "62",
+                        "fac_consecutivo": "43",
+                        "det_id_producto": "8",
+                        "det_cantidad": "1",
+                        "det_pro_precio_compra": "19000",
+                        "det_valor_unidad": "20000",
+                        "det_valor_total": "20000",
+                        "det_fecha_venta": "2019-09-25 10:44:03",
+                        "pro_nombre": "Prod 1"
+                    },
+                    {
+                        "id_detalle": "63",
+                        "fac_consecutivo": "43",
+                        "det_id_producto": "9",
+                        "det_cantidad": "5",
+                        "det_pro_precio_compra": "19000",
+                        "det_valor_unidad": "20000",
+                        "det_valor_total": "100000",
+                        "det_fecha_venta": "2019-09-25 10:44:03",
+                        "pro_nombre": "Prod 2"
+                    }
+                ]
+            },
+            {
+                "fac_consecutivo": "44",
+                "id_reserva": "101",
+                "hab_numero": "2",
+                "id_usuario": "6",
+                "promo_id": null,
+                "fac_fecha_hora_ingreso": "2019-09-25 10:47:02",
+                "fac_inicio_tiempo_parcial": "",
+                "fac_fin_tiempo_parcial": "",
+                "fac_numero_personas_adicionales": "0",
+                "fac_habitacion_decorada": "1",
+                "fac_hora_salida": "2019-09-25 10:47:03",
+                "tipo_pago": "credito",
+                "tiempo_total": "00:00:01",
+                "valor_factura": "122000",
+                "tipo_reserva": "2",
+                "fac_valor_efectivo": "0",
+                "fac_valor_credito": "122000",
+                "fac_valor_transferencia": "0",
+                "productos": [
+                    {
+                        "id_detalle": "64",
+                        "fac_consecutivo": "44",
+                        "det_id_producto": "8",
+                        "det_cantidad": "1",
+                        "det_pro_precio_compra": "19000",
+                        "det_valor_unidad": "20000",
+                        "det_valor_total": "20000",
+                        "det_fecha_venta": "2019-09-25 10:47:03",
+                        "pro_nombre": "Prod 1"
+                    },
+                    {
+                        "id_detalle": "65",
+                        "fac_consecutivo": "44",
+                        "det_id_producto": "9",
+                        "det_cantidad": "5",
+                        "det_pro_precio_compra": "19000",
+                        "det_valor_unidad": "20000",
+                        "det_valor_total": "100000",
+                        "det_fecha_venta": "2019-09-25 10:47:03",
+                        "pro_nombre": "Prod 2"
+                    }
+                ]
+            },
+            {
+                "fac_consecutivo": "45",
+                "id_reserva": "102",
+                "hab_numero": "2",
+                "id_usuario": "6",
+                "promo_id": null,
+                "fac_fecha_hora_ingreso": "2019-09-25 10:50:45",
+                "fac_inicio_tiempo_parcial": "",
+                "fac_fin_tiempo_parcial": "",
+                "fac_numero_personas_adicionales": "0",
+                "fac_habitacion_decorada": "1",
+                "fac_hora_salida": "2019-09-25 10:50:47",
+                "tipo_pago": "credito",
+                "tiempo_total": "00:00:02",
+                "valor_factura": "122000",
+                "tipo_reserva": "2",
+                "fac_valor_efectivo": "0",
+                "fac_valor_credito": "122000",
+                "fac_valor_transferencia": "0",
+                "productos": [
+                    {
+                        "id_detalle": "66",
+                        "fac_consecutivo": "45",
+                        "det_id_producto": "8",
+                        "det_cantidad": "1",
+                        "det_pro_precio_compra": "19000",
+                        "det_valor_unidad": "20000",
+                        "det_valor_total": "20000",
+                        "det_fecha_venta": "2019-09-25 10:50:47",
+                        "pro_nombre": "Prod 1"
+                    },
+                    {
+                        "id_detalle": "67",
+                        "fac_consecutivo": "45",
+                        "det_id_producto": "9",
+                        "det_cantidad": "5",
+                        "det_pro_precio_compra": "19000",
+                        "det_valor_unidad": "20000",
+                        "det_valor_total": "100000",
+                        "det_fecha_venta": "2019-09-25 10:50:47",
+                        "pro_nombre": "Prod 2"
+                    }
+                ]
+            },
+            {
+                "fac_consecutivo": "46",
+                "id_reserva": "103",
+                "hab_numero": "2",
+                "id_usuario": "6",
+                "promo_id": null,
+                "fac_fecha_hora_ingreso": "2019-09-25 10:57:09",
+                "fac_inicio_tiempo_parcial": "",
+                "fac_fin_tiempo_parcial": "",
+                "fac_numero_personas_adicionales": "0",
+                "fac_habitacion_decorada": "1",
+                "fac_hora_salida": "2019-09-25 10:57:11",
+                "tipo_pago": "credito",
+                "tiempo_total": "00:00:02",
+                "valor_factura": "122000",
+                "tipo_reserva": "2",
+                "fac_valor_efectivo": "0",
+                "fac_valor_credito": "122000",
+                "fac_valor_transferencia": "0",
+                "productos": [
+                    {
+                        "id_detalle": "68",
+                        "fac_consecutivo": "46",
+                        "det_id_producto": "8",
+                        "det_cantidad": "1",
+                        "det_pro_precio_compra": "19000",
+                        "det_valor_unidad": "20000",
+                        "det_valor_total": "20000",
+                        "det_fecha_venta": "2019-09-25 10:57:11",
+                        "pro_nombre": "Prod 1"
+                    },
+                    {
+                        "id_detalle": "69",
+                        "fac_consecutivo": "46",
+                        "det_id_producto": "9",
+                        "det_cantidad": "5",
+                        "det_pro_precio_compra": "19000",
+                        "det_valor_unidad": "20000",
+                        "det_valor_total": "100000",
+                        "det_fecha_venta": "2019-09-25 10:57:11",
+                        "pro_nombre": "Prod 2"
+                    }
+                ]
+            },
+    </t>
+  </si>
+  <si>
+    <t>{
+    "fecha_inicio": "2019-09-23",
+    "fecha_final": "2019-10-01"
 }</t>
   </si>
 </sst>
@@ -2303,8 +3093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7EBD3-0618-2440-AF04-A7ADAD9C114C}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3198,12 +3988,22 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="4"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="12"/>
+    <row r="53" spans="1:5" ht="409.6">
+      <c r="A53" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="4"/>

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BA3F68-2659-FD4D-B0D9-2605B6C880E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDC5E84-558A-0040-9689-A9B16EE60131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="232">
   <si>
     <t>SERVICIO</t>
   </si>
@@ -1501,80 +1501,6 @@
                     "pro_nombre": "Prod 2"
                 }
             ]
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>{
-    "status": "success",
-    "message": "Consultas realizada.",
-    "data": [
-        {
-            "fac_consecutivo": "31",
-            "id_reserva": "89",
-            "hab_numero": "2",
-            "id_usuario": "6",
-            "promo_id": null,
-            "fac_fecha_hora_ingreso": "2019-09-25 09:33:13",
-            "fac_inicio_tiempo_parcial": "",
-            "fac_fin_tiempo_parcial": "",
-            "fac_numero_personas_adicionales": "0",
-            "fac_habitacion_decorada": "1",
-            "fac_hora_salida": "2019-09-25 09:37:00",
-            "tipo_pago": "credito",
-            "tiempo_total": "00:03:00",
-            "valor_factura": "122000",
-            "tipo_reserva": "2",
-            "fac_valor_efectivo": "0",
-            "fac_valor_credito": "122000",
-            "fac_valor_transferencia": "0",
-            "productos": [
-                {
-                    "id_detalle": "51",
-                    "fac_consecutivo": "31",
-                    "det_id_producto": "8",
-                    "det_cantidad": "1",
-                    "det_pro_precio_compra": "19000",
-                    "det_valor_unidad": "20000",
-                    "det_valor_total": "20000",
-                    "det_fecha_venta": "2019-09-25 09:37:00",
-                    "pro_nombre": "Prod 1"
-                },
-                {
-                    "id_detalle": "52",
-                    "fac_consecutivo": "31",
-                    "det_id_producto": "9",
-                    "det_cantidad": "5",
-                    "det_pro_precio_compra": "19000",
-                    "det_valor_unidad": "20000",
-                    "det_valor_total": "100000",
-                    "det_fecha_venta": "2019-09-25 09:37:00",
-                    "pro_nombre": "Prod 2"
-                }
-            ],
-            "caja": [
-                {
-                    "usu_nombres": "Cristian Alexis"
-                }
-            ],
-            "configuracionFatura": {
-                "conf_id_fac": "1",
-                "conf_resolucion": "1876201208237",
-                "conf_razon_social": "APARTA HOTEL VILLA CAMPESTRE",
-                "conf_nombre_empresa": "INVESTMENTS GROUP S.A.S",
-                "conf_nit": "901233749-6",
-                "conf_direccion": "CARRETERA LA CORDIALIDAD N0 22-72",
-                "conf_telefono": "(095)6632106",
-                "conf_ciudad": "Cartagena, Bolivar (Colombia)",
-                "conf_fecha_inicio": "2018-12-31",
-                "conf_fecha_fin": "2018-12-31",
-                "conf_rango_inicio": "000001",
-                "conf_rango_fin": "VC 200000",
-                "conf_mensaje": "MUCHAS GRACIAS POR SU VISITA.",
-                "conf_logo": "930a77b34acfddeb24c47eeb2d92ff54.JPG",
-                "id_usuario": "6"
-            }
         }
     ]
 }</t>
@@ -2369,6 +2295,101 @@
     "fecha_final": "2019-10-01"
 }</t>
   </si>
+  <si>
+    <t>Reporte formas de pago</t>
+  </si>
+  <si>
+    <t>reporteFormarDePago</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Consultas realizada.",
+    "data": {
+        "totalEfectivo": "1,594,000",
+        "totalCredito": "1,464,000",
+        "totalTransferencia": "30,000",
+        "totalVentas": "3,088,000"
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Consultas realizada.",
+    "data": [
+        {
+            "fac_consecutivo": "31",
+            "id_reserva": "89",
+            "hab_numero": "2",
+            "id_usuario": "6",
+            "promo_id": null,
+            "fac_fecha_hora_ingreso": "2019-09-25 09:33:13",
+            "fac_inicio_tiempo_parcial": "",
+            "fac_fin_tiempo_parcial": "",
+            "fac_numero_personas_adicionales": "0",
+            "fac_habitacion_decorada": "1",
+            "fac_hora_salida": "2019-09-25 09:37:00",
+            "tipo_pago": "credito",
+            "tiempo_total": "00:03:00",
+            "valor_factura": "122000",
+            "tipo_reserva": "2",
+            "fac_valor_efectivo": "0",
+            "fac_valor_credito": "122000",
+            "fac_valor_transferencia": "0",
+            "productos": [
+                {
+                    "id_detalle": "51",
+                    "fac_consecutivo": "31",
+                    "det_id_producto": "8",
+                    "det_cantidad": "1",
+                    "det_pro_precio_compra": "19000",
+                    "det_valor_unidad": "20000",
+                    "det_valor_total": "20000",
+                    "det_fecha_venta": "2019-09-25 09:37:00",
+                    "pro_nombre": "Prod 1"
+                },
+                {
+                    "id_detalle": "52",
+                    "fac_consecutivo": "31",
+                    "det_id_producto": "9",
+                    "det_cantidad": "5",
+                    "det_pro_precio_compra": "19000",
+                    "det_valor_unidad": "20000",
+                    "det_valor_total": "100000",
+                    "det_fecha_venta": "2019-09-25 09:37:00",
+                    "pro_nombre": "Prod 2"
+                }
+            ],
+            "caja": [
+                {
+                    "usu_nombres": "Cristian Alexis"
+                }
+            ],
+            "configuracionFatura": {
+                "conf_id_fac": "1",
+                "conf_resolucion": "1876201208237",
+                "conf_razon_social": "APARTA HOTEL VILLA CAMPESTRE",
+                "conf_nombre_empresa": "INVESTMENTS GROUP S.A.S",
+                "conf_nit": "901233749-6",
+                "conf_direccion": "CARRETERA LA CORDIALIDAD N0 22-72",
+                "conf_telefono": "(095)6632106",
+                "conf_ciudad": "Cartagena, Bolivar (Colombia)",
+                "conf_fecha_inicio": "2018-12-31",
+                "conf_fecha_fin": "2018-12-31",
+                "conf_rango_inicio": "000001",
+                "conf_rango_fin": "VC 200000",
+                "conf_mensaje": "MUCHAS GRACIAS POR SU VISITA.",
+                "conf_logo": "930a77b34acfddeb24c47eeb2d92ff54.JPG",
+                "id_usuario": "6"
+            },
+            "iva": 23180,
+            "baseIva": "1,025.21",
+            "subtotal": 98820
+        }
+    ]
+}</t>
+  </si>
 </sst>
 </file>
 
@@ -3093,8 +3114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7EBD3-0618-2440-AF04-A7ADAD9C114C}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3965,7 +3986,7 @@
         <v>219</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E51" s="20" t="s">
         <v>52</v>
@@ -3990,27 +4011,37 @@
     </row>
     <row r="53" spans="1:5" ht="409.6">
       <c r="A53" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="C53" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>227</v>
       </c>
       <c r="E53" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="4"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="12"/>
+    <row r="54" spans="1:5" ht="170">
+      <c r="A54" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="4"/>

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDC5E84-558A-0040-9689-A9B16EE60131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046C1878-A8B3-984D-A248-9DEAFC729328}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
@@ -2385,7 +2385,9 @@
             },
             "iva": 23180,
             "baseIva": "1,025.21",
-            "subtotal": 98820
+            "subtotal": 98820,
+            "totalSoloTiempo": 122000,
+            "totalSoloProductos": 0
         }
     ]
 }</t>

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046C1878-A8B3-984D-A248-9DEAFC729328}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA9FF1C-93A2-CF46-9068-CB06DC52E415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="239">
   <si>
     <t>SERVICIO</t>
   </si>
@@ -2392,6 +2392,209 @@
     ]
 }</t>
   </si>
+  <si>
+    <t>Reporte habitaciones</t>
+  </si>
+  <si>
+    <t>reporteHabitaciones</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Consultas realizada.",
+    "data": [
+        {
+            "habitacion": "1",
+            "totalEfectivo": "627,000",
+            "totalCredito": "0",
+            "totalTransferencia": "30,000",
+            "totalVentas": "657,000",
+            "facturasRealizadas": "7"
+        },
+        {
+            "habitacion": "2",
+            "totalEfectivo": "235,000",
+            "totalCredito": "1,464,000",
+            "totalTransferencia": "0",
+            "totalVentas": "1,699,000",
+            "facturasRealizadas": "15"
+        },
+        {
+            "habitacion": "7",
+            "totalEfectivo": "20,000",
+            "totalCredito": "0",
+            "totalTransferencia": "0",
+            "totalVentas": "20,000",
+            "facturasRealizadas": "1"
+        },
+        {
+            "habitacion": "8",
+            "totalEfectivo": "20,000",
+            "totalCredito": "0",
+            "totalTransferencia": "0",
+            "totalVentas": "20,000",
+            "facturasRealizadas": "1"
+        },
+        {
+            "habitacion": "9",
+            "totalEfectivo": "20,000",
+            "totalCredito": "0",
+            "totalTransferencia": "0",
+            "totalVentas": "20,000",
+            "facturasRealizadas": "1"
+        },
+        {
+            "habitacion": "3",
+            "totalEfectivo": "582,000",
+            "totalCredito": "0",
+            "totalTransferencia": "0",
+            "totalVentas": "582,000",
+            "facturasRealizadas": "4"
+        },
+        {
+            "habitacion": "5",
+            "totalEfectivo": "70,000",
+            "totalCredito": "0",
+            "totalTransferencia": "0",
+            "totalVentas": "70,000",
+            "facturasRealizadas": "3"
+        },
+        {
+            "habitacion": "4",
+            "totalEfectivo": "0",
+            "totalCredito": "0",
+            "totalTransferencia": "0",
+            "totalVentas": "0",
+            "facturasRealizadas": "2"
+        },
+        {
+            "habitacion": "6",
+            "totalEfectivo": "0",
+            "totalCredito": "0",
+            "totalTransferencia": "0",
+            "totalVentas": "0",
+            "facturasRealizadas": "1"
+        },
+        {
+            "habitacion": "12",
+            "totalEfectivo": "0",
+            "totalCredito": "0",
+            "totalTransferencia": "0",
+            "totalVentas": "0",
+            "facturasRealizadas": "0"
+        },
+        {
+            "habitacion": "11",
+            "totalEfectivo": "0",
+            "totalCredito": "0",
+            "totalTransferencia": "0",
+            "totalVentas": "0",
+            "facturasRealizadas": "1"
+        },
+        {
+            "habitacion": "10",
+            "totalEfectivo": "20,000",
+            "totalCredito": "0",
+            "totalTransferencia": "0",
+            "totalVentas": "20,000",
+            "facturasRealizadas": "1"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "fecha_inicio": "2019-09-23",
+    "fecha_final"{
+    "fecha_inicio": "2019-09-23",
+    "fecha_final": "2019-10-01"
+}: "2019-10-01"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Consultas realizada.",
+    "data": [
+        {
+            "id_producto": "8",
+            "pro_codigo": "PNE-001",
+            "pro_nombre": "Prod 1",
+            "pro_precio_compra": "19000",
+            "pro_precio_venta": "20000",
+            "id_categoria": "4",
+            "id_proveedor": "4",
+            "pro_imagen": "img_deafult_product.jpg",
+            "pro_cantidad_disponible": "129",
+            "pro_fecha_ultima_modificacion": "2019-09-12",
+            "pro_fecha_creacion": "2019-09-12",
+            "pro_estado": "1"
+        },
+        {
+            "id_producto": "9",
+            "pro_codigo": "PNE-002",
+            "pro_nombre": "Prod 2",
+            "pro_precio_compra": "19000",
+            "pro_precio_venta": "20000",
+            "id_categoria": "4",
+            "id_proveedor": "4",
+            "pro_imagen": "img_deafult_product.jpg",
+            "pro_cantidad_disponible": "17",
+            "pro_fecha_ultima_modificacion": "2019-09-13",
+            "pro_fecha_creacion": "2019-09-13",
+            "pro_estado": "1"
+        },
+        {
+            "id_producto": "12",
+            "pro_codigo": "78678",
+            "pro_nombre": "Prod 3",
+            "pro_precio_compra": "78678",
+            "pro_precio_venta": "10000",
+            "id_categoria": "4",
+            "id_proveedor": "5",
+            "pro_imagen": "img_deafult_product.jpg",
+            "pro_cantidad_disponible": "2",
+            "pro_fecha_ultima_modificacion": "2019-09-14",
+            "pro_fecha_creacion": "2019-09-14",
+            "pro_estado": "1"
+        },
+        {
+            "id_producto": "13",
+            "pro_codigo": "89765",
+            "pro_nombre": "Prod 4",
+            "pro_precio_compra": "98765",
+            "pro_precio_venta": "15000",
+            "id_categoria": "4",
+            "id_proveedor": "5",
+            "pro_imagen": "img_deafult_product.jpg",
+            "pro_cantidad_disponible": "-8",
+            "pro_fecha_ultima_modificacion": "2019-09-14",
+            "pro_fecha_creacion": "2019-09-14",
+            "pro_estado": "1"
+        },
+        {
+            "id_producto": "14",
+            "pro_codigo": "567890",
+            "pro_nombre": "Prod 5",
+            "pro_precio_compra": "9876544567890",
+            "pro_precio_venta": "30000",
+            "id_categoria": "4",
+            "id_proveedor": "5",
+            "pro_imagen": "img_deafult_product.jpg",
+            "pro_cantidad_disponible": "-1",
+            "pro_fecha_ultima_modificacion": "2019-09-14",
+            "pro_fecha_creacion": "2019-09-14",
+            "pro_estado": "1"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>reporteInventario</t>
+  </si>
+  <si>
+    <t>Reporte inventario actual</t>
+  </si>
 </sst>
 </file>
 
@@ -3116,8 +3319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7EBD3-0618-2440-AF04-A7ADAD9C114C}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4036,7 +4239,7 @@
         <v>229</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>230</v>
@@ -4045,19 +4248,39 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="4"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="12"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="4"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="12"/>
+    <row r="55" spans="1:5" ht="409.6">
+      <c r="A55" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="409.6">
+      <c r="A56" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="4"/>

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA9FF1C-93A2-CF46-9068-CB06DC52E415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE781D7D-4001-9240-BED7-473BE6383321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -994,12 +994,6 @@
   </si>
   <si>
     <t>UptadeTurn</t>
-  </si>
-  <si>
-    <t>{
-    "status": "success",
-    "message": "Turno modificado exitosamente."
-}</t>
   </si>
   <si>
     <t>{
@@ -2595,6 +2589,18 @@
   <si>
     <t>Reporte inventario actual</t>
   </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Turno modificado exitosamente.",
+    "data": {
+        "totalFacturasRealizadas": "4",
+        "facturaInicio": "1",
+        "facturaFin": "4",
+        "totalVentasTurno": 270000
+    }
+}</t>
+  </si>
 </sst>
 </file>
 
@@ -3319,8 +3325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7EBD3-0618-2440-AF04-A7ADAD9C114C}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3581,7 +3587,7 @@
         <v>63</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>52</v>
@@ -3935,7 +3941,7 @@
         <v>142</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>133</v>
@@ -3955,7 +3961,7 @@
         <v>27</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>52</v>
@@ -3986,7 +3992,7 @@
         <v>160</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>162</v>
@@ -3995,7 +4001,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="85">
+    <row r="40" spans="1:5" ht="170">
       <c r="A40" s="4" t="s">
         <v>163</v>
       </c>
@@ -4006,143 +4012,143 @@
         <v>27</v>
       </c>
       <c r="D40" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E40" s="20" t="s">
         <v>165</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="187">
       <c r="A41" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B41" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C41" s="8" t="s">
+      <c r="D41" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E41" s="20" t="s">
         <v>171</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="170">
       <c r="A42" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E42" s="20" t="s">
         <v>175</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="409.6">
       <c r="A43" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="C43" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="D43" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E43" s="20" t="s">
         <v>181</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="85">
       <c r="A44" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="C44" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="D44" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="E44" s="20" t="s">
         <v>186</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="102">
       <c r="A45" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B45" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D45" s="8" t="s">
+      <c r="E45" s="20" t="s">
         <v>192</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="119">
       <c r="A46" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D46" s="8" t="s">
+      <c r="E46" s="20" t="s">
         <v>197</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="85">
       <c r="A47" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="C47" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="E47" s="20" t="s">
         <v>203</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="255">
       <c r="A48" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>205</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>206</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>52</v>
@@ -4150,48 +4156,48 @@
     </row>
     <row r="49" spans="1:5" ht="85">
       <c r="A49" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B49" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>209</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="409.6">
       <c r="A50" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="C50" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E50" s="20" t="s">
         <v>211</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="409.6">
       <c r="A51" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="C51" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>219</v>
-      </c>
       <c r="D51" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E51" s="20" t="s">
         <v>52</v>
@@ -4199,16 +4205,16 @@
     </row>
     <row r="52" spans="1:5" ht="409.6">
       <c r="A52" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="C52" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="D52" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>223</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>52</v>
@@ -4216,16 +4222,16 @@
     </row>
     <row r="53" spans="1:5" ht="409.6">
       <c r="A53" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="C53" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>225</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>226</v>
       </c>
       <c r="E53" s="20" t="s">
         <v>52</v>
@@ -4233,16 +4239,16 @@
     </row>
     <row r="54" spans="1:5" ht="170">
       <c r="A54" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="C54" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>229</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>230</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>52</v>
@@ -4250,16 +4256,16 @@
     </row>
     <row r="55" spans="1:5" ht="409.6">
       <c r="A55" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="C55" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>234</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>28</v>
@@ -4267,16 +4273,16 @@
     </row>
     <row r="56" spans="1:5" ht="409.6">
       <c r="A56" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>28</v>

--- a/Servicios Villa Campestre.xlsx
+++ b/Servicios Villa Campestre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/villa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE781D7D-4001-9240-BED7-473BE6383321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E03DB0-186A-914B-8BF9-DD55AA50EA3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{8259CFA5-B4FB-5E45-978E-DD00EB305BB7}"/>
   </bookViews>
@@ -1159,77 +1159,6 @@
     "iva": "19",
     "minutos_cortesia": "7",
     "precio_decoracion" : 2000
-}</t>
-  </si>
-  <si>
-    <t>{
-    "status": "success",
-    "message": "Consultas realizada.",
-    "data": {
-        "reserva": {
-            "hab_numero": "3",
-            "id_tipo_habitacion": "1",
-            "hab_detalle": "",
-            "sr_estado_reserva": "5",
-            "hab_fecha_creacion": "2019-09-08",
-            "hab_estado": "1",
-            "sr_nombre": "Promoción",
-            "sr_descripcion": "",
-            "sr_color": "#dsasf",
-            "th_nombre_tipo": "Premium",
-            "th_descripcion": "Cama doble para tiki tiki",
-            "th_valor_hora": "20000",
-            "th_valor_persona_adicional": "12000",
-            "th_estado": "1",
-            "th_fecha_creacion": "2019-09-07",
-            "id_reserva": "41",
-            "id_usuario": "6",
-            "promo_id": "1",
-            "ra_fecha_hora_ingreso": "2019-09-16 16:21:39",
-            "ra_inicio_tiempo_parcial": "2019-09-16 19:17:11",
-            "ra_fin_tiempo_parcial": "2019-09-16 10:52:01",
-            "ra_numero_personas_adicionales": "1",
-            "ra_habitacion_decorada": "1",
-            "ra_tipo_reserva_inicio": "5",
-            "tiempo_transcurido": "12:41:50"
-        },
-        "productos": [
-            {
-                "id_detalle": "145",
-                "id_reserva": "41",
-                "re_det_id_producto": "8",
-                "re_det_cantidad": "2",
-                "re_precio_compra": "19000",
-                "re_det_valor_unidad": "20000",
-                "re_det_valor_total": "40000"
-            },
-            {
-                "id_detalle": "146",
-                "id_reserva": "41",
-                "re_det_id_producto": "9",
-                "re_det_cantidad": "5",
-                "re_precio_compra": "19000",
-                "re_det_valor_unidad": "20000",
-                "re_det_valor_total": "100000"
-            }
-        ],
-        "financieros": {
-            "valorHora": 20000,
-            "decoracion": 2000,
-            "total": 352000,
-            "tiempoTranscurrido": "12:41:50",
-            "tiempoTranscurridoFueraPromo": "08:41:50",
-            "valorPromocion": "30000",
-            "productos": 140000
-        },
-        "promocion": {
-            "id_promocion": "1",
-            "promo_tiempo": "04:00:00",
-            "promo_valor": "30000",
-            "promo_fecha_registro": "2019-09-05",
-            "id_usuario": "6"
-        }
-    }
 }</t>
   </si>
   <si>
@@ -2601,6 +2530,78 @@
     }
 }</t>
   </si>
+  <si>
+    <t>{
+    "status": "success",
+    "message": "Consultas realizada.",
+    "data": {
+        "reserva": {
+            "hab_numero": "1",
+            "id_tipo_habitacion": "1",
+            "hab_detalle": "nada",
+            "sr_estado_reserva": "2",
+            "hab_fecha_creacion": "0000-00-00",
+            "hab_estado": "1",
+            "sr_nombre": "Reservada",
+            "sr_descripcion": "",
+            "sr_color": "#ffc107",
+            "th_nombre_tipo": "Premium",
+            "th_descripcion": "Cama doble para tiki tiki",
+            "th_valor_hora_despues24": "20000",
+            "th_valor_persona_adicional": "12000",
+            "th_estado": "1",
+            "th_fecha_creacion": "2019-09-07",
+            "th_valor_hora1": "20000",
+            "th_valor_hora2": "25500",
+            "th_valor_hora3": "30000",
+            "th_valor_hora4": "35000",
+            "th_valor_hora5": "40000",
+            "th_valor_hora6": "45000",
+            "th_valor_hora7": "50000",
+            "th_valor_hora8": "55000",
+            "th_valor_hora9": "60000",
+            "th_valor_hora10": "65000",
+            "th_valor_hora11": "70000",
+            "th_valor_hora12": "75000",
+            "th_valor_hora13": "80000",
+            "th_valor_hora14": "85000",
+            "th_valor_hora15": "90000",
+            "th_valor_hora16": "95000",
+            "th_valor_hora17": "100000",
+            "th_valor_hora18": "110000",
+            "th_valor_hora19": "115000",
+            "th_valor_hora20": "120000",
+            "th_valor_hora21": "125000",
+            "th_valor_hora22": "130000",
+            "th_valor_hora23": "135000",
+            "th_valor_hora24": "140000",
+            "id_reserva": "1",
+            "id_usuario": "2",
+            "promo_id": null,
+            "ra_fecha_hora_ingreso": "2019-10-03 00:17:24",
+            "ra_inicio_tiempo_parcial": "2019-10-03 15:54:08",
+            "ra_fin_tiempo_parcial": "2019-10-03 15:54:18",
+            "ra_numero_personas_adicionales": "0",
+            "ra_habitacion_decorada": "0",
+            "ra_tipo_reserva_inicio": "2",
+            "ra_tipo_cortesia": null,
+            "tiempo_transcurido": "19:56:50"
+        },
+        "productos": [],
+        "financieros": {
+            "valorHora": 20000,
+            "decoracion": 0,
+            "totalTiempo": 120000,
+            "total": 120000,
+            "tiempoTranscurrido": "19:56:50",
+            "productos": 0,
+            "horasCobrar": 20
+        },
+        "promocion": null,
+        "siguienteConsecutivo": 1
+    }
+}</t>
+  </si>
 </sst>
 </file>
 
@@ -3325,8 +3326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7EBD3-0618-2440-AF04-A7ADAD9C114C}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4012,7 +4013,7 @@
         <v>27</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>165</v>
@@ -4063,7 +4064,7 @@
         <v>180</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>181</v>
@@ -4088,67 +4089,67 @@
     </row>
     <row r="45" spans="1:5" ht="102">
       <c r="A45" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B45" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D45" s="8" t="s">
+      <c r="E45" s="20" t="s">
         <v>191</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="119">
       <c r="A46" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D46" s="8" t="s">
+      <c r="E46" s="20" t="s">
         <v>196</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="85">
       <c r="A47" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="C47" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="E47" s="20" t="s">
         <v>202</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="255">
       <c r="A48" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>204</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>205</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>52</v>
@@ -4156,48 +4157,48 @@
     </row>
     <row r="49" spans="1:5" ht="85">
       <c r="A49" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B49" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>208</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="409.6">
       <c r="A50" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="C50" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" s="20" t="s">
         <v>210</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="409.6">
       <c r="A51" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="C51" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>218</v>
-      </c>
       <c r="D51" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E51" s="20" t="s">
         <v>52</v>
@@ -4205,16 +4206,16 @@
     </row>
     <row r="52" spans="1:5" ht="409.6">
       <c r="A52" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="C52" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="D52" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>52</v>
@@ -4222,16 +4223,16 @@
     </row>
     <row r="53" spans="1:5" ht="409.6">
       <c r="A53" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="C53" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>225</v>
       </c>
       <c r="E53" s="20" t="s">
         <v>52</v>
@@ -4239,16 +4240,16 @@
     </row>
     <row r="54" spans="1:5" ht="170">
       <c r="A54" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="C54" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>229</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>52</v>
@@ -4256,16 +4257,16 @@
     </row>
     <row r="55" spans="1:5" ht="409.6">
       <c r="A55" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="C55" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>232</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>233</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>28</v>
@@ -4273,16 +4274,16 @@
     </row>
     <row r="56" spans="1:5" ht="409.6">
       <c r="A56" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>28</v>
